--- a/صندوق ساختمان آرايه.xlsx
+++ b/صندوق ساختمان آرايه.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="صندوق" sheetId="15" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="315">
   <si>
     <t>رديف</t>
   </si>
@@ -953,6 +953,12 @@
   </si>
   <si>
     <t>هزینه آبونمان ارسال پیامک</t>
+  </si>
+  <si>
+    <t>8/4</t>
+  </si>
+  <si>
+    <t>8/5</t>
   </si>
 </sst>
 </file>
@@ -1398,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L1003"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A233" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A132" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,7 +1480,7 @@
       </c>
       <c r="L3" s="9">
         <f>L2+C1003-G1003</f>
-        <v>9144720</v>
+        <v>10646620</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.7">
@@ -4692,9 +4698,15 @@
       <c r="E144" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="G144" s="13"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="4"/>
+      <c r="G144" s="13">
+        <v>679600</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.7">
       <c r="B145" s="4">
@@ -4709,9 +4721,15 @@
       <c r="E145" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="4"/>
+      <c r="G145" s="13">
+        <v>809100</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.7">
       <c r="B146" s="4">
@@ -6483,9 +6501,15 @@
       <c r="B249" s="4">
         <v>247</v>
       </c>
-      <c r="C249" s="13"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="4"/>
+      <c r="C249" s="13">
+        <v>360000</v>
+      </c>
+      <c r="D249" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G249" s="13"/>
       <c r="H249" s="11"/>
       <c r="I249" s="4"/>
@@ -6494,9 +6518,15 @@
       <c r="B250" s="4">
         <v>248</v>
       </c>
-      <c r="C250" s="13"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="4"/>
+      <c r="C250" s="13">
+        <v>679600</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G250" s="13"/>
       <c r="H250" s="11"/>
       <c r="I250" s="4"/>
@@ -6505,9 +6535,15 @@
       <c r="B251" s="4">
         <v>249</v>
       </c>
-      <c r="C251" s="13"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="4"/>
+      <c r="C251" s="13">
+        <v>189000</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G251" s="13"/>
       <c r="H251" s="11"/>
       <c r="I251" s="4"/>
@@ -6516,9 +6552,15 @@
       <c r="B252" s="4">
         <v>250</v>
       </c>
-      <c r="C252" s="13"/>
-      <c r="D252" s="11"/>
-      <c r="E252" s="4"/>
+      <c r="C252" s="13">
+        <v>320000</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G252" s="13"/>
       <c r="H252" s="11"/>
       <c r="I252" s="4"/>
@@ -6527,9 +6569,15 @@
       <c r="B253" s="4">
         <v>251</v>
       </c>
-      <c r="C253" s="13"/>
-      <c r="D253" s="11"/>
-      <c r="E253" s="4"/>
+      <c r="C253" s="13">
+        <v>340000</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="G253" s="13"/>
       <c r="H253" s="11"/>
       <c r="I253" s="4"/>
@@ -6538,9 +6586,15 @@
       <c r="B254" s="4">
         <v>252</v>
       </c>
-      <c r="C254" s="13"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="4"/>
+      <c r="C254" s="13">
+        <v>1102000</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="G254" s="13"/>
       <c r="H254" s="11"/>
       <c r="I254" s="4"/>
@@ -14811,13 +14865,13 @@
       </c>
       <c r="C1003" s="15">
         <f>SUM(C3:C1002)</f>
-        <v>89971643</v>
+        <v>92962243</v>
       </c>
       <c r="D1003" s="12"/>
       <c r="E1003" s="3"/>
       <c r="G1003" s="15">
         <f>SUM(G3:G1002)</f>
-        <v>101426923</v>
+        <v>102915623</v>
       </c>
       <c r="H1003" s="12"/>
       <c r="I1003" s="3"/>

--- a/صندوق ساختمان آرايه.xlsx
+++ b/صندوق ساختمان آرايه.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A96B56-8331-403D-B290-5DE9FC70192D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="صندوق" sheetId="15" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="318">
   <si>
     <t>رديف</t>
   </si>
@@ -959,12 +974,21 @@
   </si>
   <si>
     <t>8/5</t>
+  </si>
+  <si>
+    <t>تنظیم باد مخزن</t>
+  </si>
+  <si>
+    <t>8/14</t>
+  </si>
+  <si>
+    <t>ولی زاده بابت شارژ خانم داوودی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1191,6 +1215,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1226,6 +1267,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1401,30 +1459,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L1003"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A132" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A133" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D262" sqref="D262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="22.2" x14ac:dyDescent="0.75">
+    <row r="2" spans="2:12" ht="22.5" x14ac:dyDescent="0.6">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1511,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="22.2" x14ac:dyDescent="0.75">
+    <row r="3" spans="2:12" ht="22.5" x14ac:dyDescent="0.6">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1480,10 +1538,10 @@
       </c>
       <c r="L3" s="9">
         <f>L2+C1003-G1003</f>
-        <v>10646620</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+        <v>14862020</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1506,7 +1564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1529,7 +1587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1552,7 +1610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1575,7 +1633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1598,7 +1656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1621,7 +1679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -1644,7 +1702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -1667,7 +1725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -1690,7 +1748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -1713,7 +1771,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -1736,7 +1794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -1759,7 +1817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -1782,7 +1840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -1805,7 +1863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -1828,7 +1886,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -1851,7 +1909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -1874,7 +1932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -1897,7 +1955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="4">
         <v>20</v>
       </c>
@@ -1920,7 +1978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="4">
         <v>21</v>
       </c>
@@ -1943,7 +2001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="4">
         <v>22</v>
       </c>
@@ -1966,7 +2024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="4">
         <v>23</v>
       </c>
@@ -1989,7 +2047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="4">
         <v>24</v>
       </c>
@@ -2012,7 +2070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="4">
         <v>25</v>
       </c>
@@ -2035,7 +2093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="4">
         <v>26</v>
       </c>
@@ -2061,7 +2119,7 @@
         <v>3817260</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="4">
         <v>27</v>
       </c>
@@ -2084,7 +2142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="4">
         <v>28</v>
       </c>
@@ -2107,7 +2165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="4">
         <v>29</v>
       </c>
@@ -2130,7 +2188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="21" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:11" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="4">
         <v>30</v>
       </c>
@@ -2156,7 +2214,7 @@
         <v>1029140</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="4">
         <v>31</v>
       </c>
@@ -2179,7 +2237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="4">
         <v>32</v>
       </c>
@@ -2202,7 +2260,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="4">
         <v>33</v>
       </c>
@@ -2225,7 +2283,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="4">
         <v>34</v>
       </c>
@@ -2248,7 +2306,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="4">
         <v>35</v>
       </c>
@@ -2271,7 +2329,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="4">
         <v>36</v>
       </c>
@@ -2294,7 +2352,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="4">
         <v>37</v>
       </c>
@@ -2317,7 +2375,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="4">
         <v>38</v>
       </c>
@@ -2340,7 +2398,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="4">
         <v>39</v>
       </c>
@@ -2363,7 +2421,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="4">
         <v>40</v>
       </c>
@@ -2386,7 +2444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="4">
         <v>41</v>
       </c>
@@ -2409,7 +2467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="4">
         <v>42</v>
       </c>
@@ -2432,7 +2490,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="4">
         <v>43</v>
       </c>
@@ -2455,7 +2513,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="4">
         <v>44</v>
       </c>
@@ -2478,7 +2536,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="4">
         <v>45</v>
       </c>
@@ -2501,7 +2559,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="4">
         <v>46</v>
       </c>
@@ -2524,7 +2582,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="4">
         <v>47</v>
       </c>
@@ -2547,7 +2605,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="4">
         <v>48</v>
       </c>
@@ -2570,7 +2628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="4">
         <v>49</v>
       </c>
@@ -2593,7 +2651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="4">
         <v>50</v>
       </c>
@@ -2616,7 +2674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="4">
         <v>51</v>
       </c>
@@ -2639,7 +2697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="4">
         <v>52</v>
       </c>
@@ -2662,7 +2720,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="55" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="4">
         <v>53</v>
       </c>
@@ -2685,7 +2743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="4">
         <v>54</v>
       </c>
@@ -2708,7 +2766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="57" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="4">
         <v>55</v>
       </c>
@@ -2731,7 +2789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="4">
         <v>56</v>
       </c>
@@ -2754,7 +2812,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="59" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="4">
         <v>57</v>
       </c>
@@ -2777,7 +2835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="4">
         <v>58</v>
       </c>
@@ -2800,7 +2858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="4">
         <v>59</v>
       </c>
@@ -2823,7 +2881,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="4">
         <v>60</v>
       </c>
@@ -2846,7 +2904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="63" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="4">
         <v>61</v>
       </c>
@@ -2869,7 +2927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="64" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="4">
         <v>62</v>
       </c>
@@ -2892,7 +2950,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="4">
         <v>63</v>
       </c>
@@ -2915,7 +2973,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="4">
         <v>64</v>
       </c>
@@ -2932,7 +2990,7 @@
       <c r="H66" s="20"/>
       <c r="I66" s="21"/>
     </row>
-    <row r="67" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="4">
         <v>65</v>
       </c>
@@ -2949,7 +3007,7 @@
       <c r="H67" s="18"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="4">
         <v>66</v>
       </c>
@@ -2972,7 +3030,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="4">
         <v>67</v>
       </c>
@@ -2995,7 +3053,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="4">
         <v>68</v>
       </c>
@@ -3018,7 +3076,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="4">
         <v>69</v>
       </c>
@@ -3041,7 +3099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="4">
         <v>70</v>
       </c>
@@ -3064,7 +3122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="4">
         <v>71</v>
       </c>
@@ -3087,7 +3145,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="4">
         <v>72</v>
       </c>
@@ -3110,7 +3168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="4">
         <v>73</v>
       </c>
@@ -3133,7 +3191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="4">
         <v>74</v>
       </c>
@@ -3156,7 +3214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="4">
         <v>75</v>
       </c>
@@ -3179,7 +3237,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="4">
         <v>76</v>
       </c>
@@ -3202,7 +3260,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="4">
         <v>77</v>
       </c>
@@ -3225,7 +3283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="80" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="4">
         <v>78</v>
       </c>
@@ -3248,7 +3306,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="4">
         <v>79</v>
       </c>
@@ -3271,7 +3329,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="4">
         <v>80</v>
       </c>
@@ -3294,7 +3352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="83" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="4">
         <v>81</v>
       </c>
@@ -3317,7 +3375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="4">
         <v>82</v>
       </c>
@@ -3340,7 +3398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="4">
         <v>83</v>
       </c>
@@ -3363,7 +3421,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="86" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="4">
         <v>84</v>
       </c>
@@ -3386,7 +3444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="4">
         <v>85</v>
       </c>
@@ -3409,7 +3467,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="4">
         <v>86</v>
       </c>
@@ -3432,7 +3490,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="4">
         <v>87</v>
       </c>
@@ -3455,7 +3513,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="4">
         <v>88</v>
       </c>
@@ -3478,7 +3536,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="4">
         <v>89</v>
       </c>
@@ -3501,7 +3559,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="4">
         <v>90</v>
       </c>
@@ -3524,7 +3582,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="93" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="4">
         <v>91</v>
       </c>
@@ -3547,7 +3605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="4">
         <v>92</v>
       </c>
@@ -3570,7 +3628,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="4">
         <v>93</v>
       </c>
@@ -3593,7 +3651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="4">
         <v>94</v>
       </c>
@@ -3616,7 +3674,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="4">
         <v>95</v>
       </c>
@@ -3639,7 +3697,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="98" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="4">
         <v>96</v>
       </c>
@@ -3662,7 +3720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="4">
         <v>97</v>
       </c>
@@ -3685,7 +3743,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="100" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="4">
         <v>98</v>
       </c>
@@ -3708,7 +3766,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="4">
         <v>99</v>
       </c>
@@ -3731,7 +3789,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="102" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="4">
         <v>100</v>
       </c>
@@ -3754,7 +3812,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="4">
         <v>101</v>
       </c>
@@ -3777,7 +3835,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="104" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="4">
         <v>102</v>
       </c>
@@ -3800,7 +3858,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="105" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="4">
         <v>103</v>
       </c>
@@ -3823,7 +3881,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="4">
         <v>104</v>
       </c>
@@ -3846,7 +3904,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="107" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="4">
         <v>105</v>
       </c>
@@ -3869,7 +3927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="4">
         <v>106</v>
       </c>
@@ -3892,7 +3950,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="109" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="4">
         <v>107</v>
       </c>
@@ -3915,7 +3973,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="110" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="4">
         <v>108</v>
       </c>
@@ -3938,7 +3996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="4">
         <v>109</v>
       </c>
@@ -3961,7 +4019,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="112" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="4">
         <v>110</v>
       </c>
@@ -3984,7 +4042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="4">
         <v>111</v>
       </c>
@@ -4007,7 +4065,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="4">
         <v>112</v>
       </c>
@@ -4030,7 +4088,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="115" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="4">
         <v>113</v>
       </c>
@@ -4053,7 +4111,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="4">
         <v>114</v>
       </c>
@@ -4076,7 +4134,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="117" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="4">
         <v>115</v>
       </c>
@@ -4099,7 +4157,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="4">
         <v>116</v>
       </c>
@@ -4122,7 +4180,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="119" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="4">
         <v>117</v>
       </c>
@@ -4145,7 +4203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="4">
         <v>118</v>
       </c>
@@ -4168,7 +4226,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="4">
         <v>119</v>
       </c>
@@ -4191,7 +4249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="4">
         <v>120</v>
       </c>
@@ -4214,7 +4272,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="4">
         <v>121</v>
       </c>
@@ -4237,7 +4295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="124" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="4">
         <v>122</v>
       </c>
@@ -4260,7 +4318,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="4">
         <v>123</v>
       </c>
@@ -4283,7 +4341,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="4">
         <v>124</v>
       </c>
@@ -4306,7 +4364,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="127" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="4">
         <v>125</v>
       </c>
@@ -4329,7 +4387,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="4">
         <v>126</v>
       </c>
@@ -4352,7 +4410,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="4">
         <v>127</v>
       </c>
@@ -4375,7 +4433,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="4">
         <v>128</v>
       </c>
@@ -4398,7 +4456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="4">
         <v>129</v>
       </c>
@@ -4421,7 +4479,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="4">
         <v>130</v>
       </c>
@@ -4444,7 +4502,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="4">
         <v>131</v>
       </c>
@@ -4467,7 +4525,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="134" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="4">
         <v>132</v>
       </c>
@@ -4490,7 +4548,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="4">
         <v>133</v>
       </c>
@@ -4513,7 +4571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="136" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="4">
         <v>134</v>
       </c>
@@ -4536,7 +4594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="4">
         <v>135</v>
       </c>
@@ -4559,7 +4617,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="138" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="21">
         <v>136</v>
       </c>
@@ -4576,7 +4634,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="139" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="16">
         <v>137</v>
       </c>
@@ -4593,7 +4651,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="4">
         <v>138</v>
       </c>
@@ -4616,7 +4674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="141" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="4">
         <v>139</v>
       </c>
@@ -4639,7 +4697,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="142" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="4">
         <v>140</v>
       </c>
@@ -4662,7 +4720,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="143" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="4">
         <v>141</v>
       </c>
@@ -4685,7 +4743,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="4">
         <v>142</v>
       </c>
@@ -4708,7 +4766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="145" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="4">
         <v>143</v>
       </c>
@@ -4731,7 +4789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="146" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="4">
         <v>144</v>
       </c>
@@ -4744,11 +4802,17 @@
       <c r="E146" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G146" s="13"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="4"/>
-    </row>
-    <row r="147" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+      <c r="G146" s="13">
+        <v>500000</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="4">
         <v>145</v>
       </c>
@@ -4765,7 +4829,7 @@
       <c r="H147" s="11"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="148" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="4">
         <v>146</v>
       </c>
@@ -4785,7 +4849,7 @@
       <c r="H148" s="11"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="149" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="4">
         <v>147</v>
       </c>
@@ -4805,7 +4869,7 @@
       <c r="H149" s="11"/>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="150" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="4">
         <v>148</v>
       </c>
@@ -4825,7 +4889,7 @@
       <c r="H150" s="11"/>
       <c r="I150" s="4"/>
     </row>
-    <row r="151" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="151" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="4">
         <v>149</v>
       </c>
@@ -4845,7 +4909,7 @@
       <c r="H151" s="11"/>
       <c r="I151" s="4"/>
     </row>
-    <row r="152" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="152" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="4">
         <v>150</v>
       </c>
@@ -4865,7 +4929,7 @@
       <c r="H152" s="11"/>
       <c r="I152" s="4"/>
     </row>
-    <row r="153" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="153" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="4">
         <v>151</v>
       </c>
@@ -4882,7 +4946,7 @@
       <c r="H153" s="11"/>
       <c r="I153" s="4"/>
     </row>
-    <row r="154" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="154" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="4">
         <v>152</v>
       </c>
@@ -4899,7 +4963,7 @@
       <c r="H154" s="11"/>
       <c r="I154" s="4"/>
     </row>
-    <row r="155" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="4">
         <v>153</v>
       </c>
@@ -4916,7 +4980,7 @@
       <c r="H155" s="11"/>
       <c r="I155" s="4"/>
     </row>
-    <row r="156" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="156" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="4">
         <v>154</v>
       </c>
@@ -4933,7 +4997,7 @@
       <c r="H156" s="11"/>
       <c r="I156" s="4"/>
     </row>
-    <row r="157" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="157" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="4">
         <v>155</v>
       </c>
@@ -4950,7 +5014,7 @@
       <c r="H157" s="11"/>
       <c r="I157" s="4"/>
     </row>
-    <row r="158" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="158" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="4">
         <v>156</v>
       </c>
@@ -4967,7 +5031,7 @@
       <c r="H158" s="11"/>
       <c r="I158" s="4"/>
     </row>
-    <row r="159" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="159" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="4">
         <v>157</v>
       </c>
@@ -4984,7 +5048,7 @@
       <c r="H159" s="11"/>
       <c r="I159" s="4"/>
     </row>
-    <row r="160" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="160" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="4">
         <v>158</v>
       </c>
@@ -5001,7 +5065,7 @@
       <c r="H160" s="11"/>
       <c r="I160" s="4"/>
     </row>
-    <row r="161" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="161" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="4">
         <v>159</v>
       </c>
@@ -5018,7 +5082,7 @@
       <c r="H161" s="11"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="4">
         <v>160</v>
       </c>
@@ -5035,7 +5099,7 @@
       <c r="H162" s="11"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="4">
         <v>161</v>
       </c>
@@ -5052,7 +5116,7 @@
       <c r="H163" s="11"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="164" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="4">
         <v>162</v>
       </c>
@@ -5069,7 +5133,7 @@
       <c r="H164" s="11"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="4">
         <v>163</v>
       </c>
@@ -5086,7 +5150,7 @@
       <c r="H165" s="11"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="166" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="4">
         <v>164</v>
       </c>
@@ -5103,7 +5167,7 @@
       <c r="H166" s="11"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="167" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="4">
         <v>165</v>
       </c>
@@ -5120,7 +5184,7 @@
       <c r="H167" s="11"/>
       <c r="I167" s="4"/>
     </row>
-    <row r="168" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="168" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="4">
         <v>166</v>
       </c>
@@ -5137,7 +5201,7 @@
       <c r="H168" s="11"/>
       <c r="I168" s="4"/>
     </row>
-    <row r="169" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="169" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="4">
         <v>167</v>
       </c>
@@ -5154,7 +5218,7 @@
       <c r="H169" s="11"/>
       <c r="I169" s="4"/>
     </row>
-    <row r="170" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="170" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="4">
         <v>168</v>
       </c>
@@ -5171,7 +5235,7 @@
       <c r="H170" s="11"/>
       <c r="I170" s="4"/>
     </row>
-    <row r="171" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="171" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="4">
         <v>169</v>
       </c>
@@ -5188,7 +5252,7 @@
       <c r="H171" s="11"/>
       <c r="I171" s="4"/>
     </row>
-    <row r="172" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="172" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="4">
         <v>170</v>
       </c>
@@ -5205,7 +5269,7 @@
       <c r="H172" s="11"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="173" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="4">
         <v>171</v>
       </c>
@@ -5222,7 +5286,7 @@
       <c r="H173" s="11"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="174" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="4">
         <v>172</v>
       </c>
@@ -5239,7 +5303,7 @@
       <c r="H174" s="11"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="175" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="4">
         <v>173</v>
       </c>
@@ -5256,7 +5320,7 @@
       <c r="H175" s="11"/>
       <c r="I175" s="4"/>
     </row>
-    <row r="176" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="176" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="4">
         <v>174</v>
       </c>
@@ -5273,7 +5337,7 @@
       <c r="H176" s="11"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="177" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="4">
         <v>175</v>
       </c>
@@ -5290,7 +5354,7 @@
       <c r="H177" s="11"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="178" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="4">
         <v>176</v>
       </c>
@@ -5307,7 +5371,7 @@
       <c r="H178" s="11"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="179" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="4">
         <v>177</v>
       </c>
@@ -5324,7 +5388,7 @@
       <c r="H179" s="11"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="180" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="4">
         <v>178</v>
       </c>
@@ -5341,7 +5405,7 @@
       <c r="H180" s="11"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="181" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="4">
         <v>179</v>
       </c>
@@ -5358,7 +5422,7 @@
       <c r="H181" s="11"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="182" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="4">
         <v>180</v>
       </c>
@@ -5375,7 +5439,7 @@
       <c r="H182" s="11"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="183" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="4">
         <v>181</v>
       </c>
@@ -5392,7 +5456,7 @@
       <c r="H183" s="11"/>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="184" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="4">
         <v>182</v>
       </c>
@@ -5409,7 +5473,7 @@
       <c r="H184" s="11"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="185" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="4">
         <v>183</v>
       </c>
@@ -5426,7 +5490,7 @@
       <c r="H185" s="11"/>
       <c r="I185" s="4"/>
     </row>
-    <row r="186" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="186" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="4">
         <v>184</v>
       </c>
@@ -5443,7 +5507,7 @@
       <c r="H186" s="11"/>
       <c r="I186" s="4"/>
     </row>
-    <row r="187" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="187" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="4">
         <v>185</v>
       </c>
@@ -5460,7 +5524,7 @@
       <c r="H187" s="11"/>
       <c r="I187" s="4"/>
     </row>
-    <row r="188" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="188" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="4">
         <v>186</v>
       </c>
@@ -5477,7 +5541,7 @@
       <c r="H188" s="11"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="189" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="4">
         <v>187</v>
       </c>
@@ -5494,7 +5558,7 @@
       <c r="H189" s="11"/>
       <c r="I189" s="4"/>
     </row>
-    <row r="190" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="190" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="4">
         <v>188</v>
       </c>
@@ -5511,7 +5575,7 @@
       <c r="H190" s="11"/>
       <c r="I190" s="4"/>
     </row>
-    <row r="191" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="191" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="4">
         <v>189</v>
       </c>
@@ -5528,7 +5592,7 @@
       <c r="H191" s="11"/>
       <c r="I191" s="4"/>
     </row>
-    <row r="192" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="192" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="4">
         <v>190</v>
       </c>
@@ -5545,7 +5609,7 @@
       <c r="H192" s="11"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="193" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="4">
         <v>191</v>
       </c>
@@ -5562,7 +5626,7 @@
       <c r="H193" s="11"/>
       <c r="I193" s="4"/>
     </row>
-    <row r="194" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="194" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="4">
         <v>192</v>
       </c>
@@ -5579,7 +5643,7 @@
       <c r="H194" s="11"/>
       <c r="I194" s="4"/>
     </row>
-    <row r="195" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="195" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="4">
         <v>193</v>
       </c>
@@ -5596,7 +5660,7 @@
       <c r="H195" s="11"/>
       <c r="I195" s="4"/>
     </row>
-    <row r="196" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="196" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="4">
         <v>194</v>
       </c>
@@ -5613,7 +5677,7 @@
       <c r="H196" s="11"/>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="197" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="4">
         <v>195</v>
       </c>
@@ -5630,7 +5694,7 @@
       <c r="H197" s="11"/>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="198" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="4">
         <v>196</v>
       </c>
@@ -5647,7 +5711,7 @@
       <c r="H198" s="11"/>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="199" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="4">
         <v>197</v>
       </c>
@@ -5664,7 +5728,7 @@
       <c r="H199" s="11"/>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="200" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="4">
         <v>198</v>
       </c>
@@ -5681,7 +5745,7 @@
       <c r="H200" s="11"/>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="201" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="4">
         <v>199</v>
       </c>
@@ -5698,7 +5762,7 @@
       <c r="H201" s="11"/>
       <c r="I201" s="4"/>
     </row>
-    <row r="202" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="202" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="4">
         <v>200</v>
       </c>
@@ -5715,7 +5779,7 @@
       <c r="H202" s="11"/>
       <c r="I202" s="4"/>
     </row>
-    <row r="203" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="203" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="4">
         <v>201</v>
       </c>
@@ -5732,7 +5796,7 @@
       <c r="H203" s="11"/>
       <c r="I203" s="4"/>
     </row>
-    <row r="204" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="204" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="4">
         <v>202</v>
       </c>
@@ -5749,7 +5813,7 @@
       <c r="H204" s="11"/>
       <c r="I204" s="4"/>
     </row>
-    <row r="205" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="205" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="4">
         <v>203</v>
       </c>
@@ -5766,7 +5830,7 @@
       <c r="H205" s="11"/>
       <c r="I205" s="4"/>
     </row>
-    <row r="206" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="206" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="4">
         <v>204</v>
       </c>
@@ -5783,7 +5847,7 @@
       <c r="H206" s="11"/>
       <c r="I206" s="4"/>
     </row>
-    <row r="207" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="207" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="4">
         <v>205</v>
       </c>
@@ -5800,7 +5864,7 @@
       <c r="H207" s="11"/>
       <c r="I207" s="4"/>
     </row>
-    <row r="208" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="208" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="4">
         <v>206</v>
       </c>
@@ -5817,7 +5881,7 @@
       <c r="H208" s="11"/>
       <c r="I208" s="4"/>
     </row>
-    <row r="209" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="209" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="4">
         <v>207</v>
       </c>
@@ -5834,7 +5898,7 @@
       <c r="H209" s="11"/>
       <c r="I209" s="4"/>
     </row>
-    <row r="210" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="210" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="4">
         <v>208</v>
       </c>
@@ -5851,7 +5915,7 @@
       <c r="H210" s="11"/>
       <c r="I210" s="4"/>
     </row>
-    <row r="211" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="211" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="4">
         <v>209</v>
       </c>
@@ -5868,7 +5932,7 @@
       <c r="H211" s="11"/>
       <c r="I211" s="4"/>
     </row>
-    <row r="212" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="212" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="4">
         <v>210</v>
       </c>
@@ -5885,7 +5949,7 @@
       <c r="H212" s="11"/>
       <c r="I212" s="4"/>
     </row>
-    <row r="213" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="213" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="4">
         <v>211</v>
       </c>
@@ -5902,7 +5966,7 @@
       <c r="H213" s="11"/>
       <c r="I213" s="4"/>
     </row>
-    <row r="214" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="214" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="4">
         <v>212</v>
       </c>
@@ -5919,7 +5983,7 @@
       <c r="H214" s="11"/>
       <c r="I214" s="4"/>
     </row>
-    <row r="215" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="215" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="4">
         <v>213</v>
       </c>
@@ -5936,7 +6000,7 @@
       <c r="H215" s="11"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="216" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="4">
         <v>214</v>
       </c>
@@ -5953,7 +6017,7 @@
       <c r="H216" s="11"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="217" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="4">
         <v>215</v>
       </c>
@@ -5970,7 +6034,7 @@
       <c r="H217" s="11"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="218" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="4">
         <v>216</v>
       </c>
@@ -5987,7 +6051,7 @@
       <c r="H218" s="11"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="219" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="4">
         <v>217</v>
       </c>
@@ -6004,7 +6068,7 @@
       <c r="H219" s="11"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="220" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="4">
         <v>218</v>
       </c>
@@ -6021,7 +6085,7 @@
       <c r="H220" s="11"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="221" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="4">
         <v>219</v>
       </c>
@@ -6038,7 +6102,7 @@
       <c r="H221" s="11"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="222" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="4">
         <v>220</v>
       </c>
@@ -6055,7 +6119,7 @@
       <c r="H222" s="11"/>
       <c r="I222" s="4"/>
     </row>
-    <row r="223" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="223" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="4">
         <v>221</v>
       </c>
@@ -6072,7 +6136,7 @@
       <c r="H223" s="11"/>
       <c r="I223" s="4"/>
     </row>
-    <row r="224" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="224" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="4">
         <v>222</v>
       </c>
@@ -6089,7 +6153,7 @@
       <c r="H224" s="11"/>
       <c r="I224" s="4"/>
     </row>
-    <row r="225" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="225" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="4">
         <v>223</v>
       </c>
@@ -6106,7 +6170,7 @@
       <c r="H225" s="11"/>
       <c r="I225" s="4"/>
     </row>
-    <row r="226" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="226" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="4">
         <v>224</v>
       </c>
@@ -6123,7 +6187,7 @@
       <c r="H226" s="11"/>
       <c r="I226" s="4"/>
     </row>
-    <row r="227" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="227" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="4">
         <v>225</v>
       </c>
@@ -6140,7 +6204,7 @@
       <c r="H227" s="11"/>
       <c r="I227" s="4"/>
     </row>
-    <row r="228" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="228" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="4">
         <v>226</v>
       </c>
@@ -6157,7 +6221,7 @@
       <c r="H228" s="11"/>
       <c r="I228" s="4"/>
     </row>
-    <row r="229" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="229" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="4">
         <v>227</v>
       </c>
@@ -6174,7 +6238,7 @@
       <c r="H229" s="11"/>
       <c r="I229" s="4"/>
     </row>
-    <row r="230" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="230" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="4">
         <v>228</v>
       </c>
@@ -6191,7 +6255,7 @@
       <c r="H230" s="11"/>
       <c r="I230" s="4"/>
     </row>
-    <row r="231" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="231" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B231" s="4">
         <v>229</v>
       </c>
@@ -6208,7 +6272,7 @@
       <c r="H231" s="11"/>
       <c r="I231" s="4"/>
     </row>
-    <row r="232" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="232" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B232" s="4">
         <v>230</v>
       </c>
@@ -6225,7 +6289,7 @@
       <c r="H232" s="11"/>
       <c r="I232" s="4"/>
     </row>
-    <row r="233" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="233" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B233" s="4">
         <v>231</v>
       </c>
@@ -6242,7 +6306,7 @@
       <c r="H233" s="11"/>
       <c r="I233" s="4"/>
     </row>
-    <row r="234" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="234" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B234" s="4">
         <v>232</v>
       </c>
@@ -6259,7 +6323,7 @@
       <c r="H234" s="11"/>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="235" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B235" s="4">
         <v>233</v>
       </c>
@@ -6276,7 +6340,7 @@
       <c r="H235" s="11"/>
       <c r="I235" s="4"/>
     </row>
-    <row r="236" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="236" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B236" s="4">
         <v>234</v>
       </c>
@@ -6293,7 +6357,7 @@
       <c r="H236" s="11"/>
       <c r="I236" s="4"/>
     </row>
-    <row r="237" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="237" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B237" s="4">
         <v>235</v>
       </c>
@@ -6310,7 +6374,7 @@
       <c r="H237" s="11"/>
       <c r="I237" s="4"/>
     </row>
-    <row r="238" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="238" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B238" s="4">
         <v>236</v>
       </c>
@@ -6327,7 +6391,7 @@
       <c r="H238" s="11"/>
       <c r="I238" s="4"/>
     </row>
-    <row r="239" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="239" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B239" s="4">
         <v>237</v>
       </c>
@@ -6344,7 +6408,7 @@
       <c r="H239" s="11"/>
       <c r="I239" s="4"/>
     </row>
-    <row r="240" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="240" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B240" s="4">
         <v>238</v>
       </c>
@@ -6361,7 +6425,7 @@
       <c r="H240" s="11"/>
       <c r="I240" s="4"/>
     </row>
-    <row r="241" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="241" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B241" s="4">
         <v>239</v>
       </c>
@@ -6378,7 +6442,7 @@
       <c r="H241" s="11"/>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="242" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B242" s="4">
         <v>240</v>
       </c>
@@ -6395,7 +6459,7 @@
       <c r="H242" s="11"/>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="243" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B243" s="4">
         <v>241</v>
       </c>
@@ -6412,7 +6476,7 @@
       <c r="H243" s="11"/>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="244" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B244" s="4">
         <v>242</v>
       </c>
@@ -6429,7 +6493,7 @@
       <c r="H244" s="11"/>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="245" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B245" s="4">
         <v>243</v>
       </c>
@@ -6446,7 +6510,7 @@
       <c r="H245" s="11"/>
       <c r="I245" s="4"/>
     </row>
-    <row r="246" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="246" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B246" s="4">
         <v>244</v>
       </c>
@@ -6463,7 +6527,7 @@
       <c r="H246" s="11"/>
       <c r="I246" s="4"/>
     </row>
-    <row r="247" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="247" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B247" s="4">
         <v>245</v>
       </c>
@@ -6480,7 +6544,7 @@
       <c r="H247" s="11"/>
       <c r="I247" s="4"/>
     </row>
-    <row r="248" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="248" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B248" s="4">
         <v>246</v>
       </c>
@@ -6497,7 +6561,7 @@
       <c r="H248" s="11"/>
       <c r="I248" s="4"/>
     </row>
-    <row r="249" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="249" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B249" s="4">
         <v>247</v>
       </c>
@@ -6514,7 +6578,7 @@
       <c r="H249" s="11"/>
       <c r="I249" s="4"/>
     </row>
-    <row r="250" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="250" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B250" s="4">
         <v>248</v>
       </c>
@@ -6531,7 +6595,7 @@
       <c r="H250" s="11"/>
       <c r="I250" s="4"/>
     </row>
-    <row r="251" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="251" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B251" s="4">
         <v>249</v>
       </c>
@@ -6548,7 +6612,7 @@
       <c r="H251" s="11"/>
       <c r="I251" s="4"/>
     </row>
-    <row r="252" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="252" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B252" s="4">
         <v>250</v>
       </c>
@@ -6565,7 +6629,7 @@
       <c r="H252" s="11"/>
       <c r="I252" s="4"/>
     </row>
-    <row r="253" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="253" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B253" s="4">
         <v>251</v>
       </c>
@@ -6582,7 +6646,7 @@
       <c r="H253" s="11"/>
       <c r="I253" s="4"/>
     </row>
-    <row r="254" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="254" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B254" s="4">
         <v>252</v>
       </c>
@@ -6599,95 +6663,143 @@
       <c r="H254" s="11"/>
       <c r="I254" s="4"/>
     </row>
-    <row r="255" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="255" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B255" s="4">
         <v>253</v>
       </c>
-      <c r="C255" s="13"/>
-      <c r="D255" s="11"/>
-      <c r="E255" s="4"/>
+      <c r="C255" s="13">
+        <v>400000</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G255" s="13"/>
       <c r="H255" s="11"/>
       <c r="I255" s="4"/>
     </row>
-    <row r="256" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="256" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B256" s="4">
         <v>254</v>
       </c>
-      <c r="C256" s="13"/>
-      <c r="D256" s="11"/>
-      <c r="E256" s="4"/>
+      <c r="C256" s="13">
+        <v>640000</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G256" s="13"/>
       <c r="H256" s="11"/>
       <c r="I256" s="4"/>
     </row>
-    <row r="257" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="257" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B257" s="4">
         <v>255</v>
       </c>
-      <c r="C257" s="13"/>
-      <c r="D257" s="11"/>
-      <c r="E257" s="4"/>
+      <c r="C257" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="G257" s="13"/>
       <c r="H257" s="11"/>
       <c r="I257" s="4"/>
     </row>
-    <row r="258" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="258" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B258" s="4">
         <v>256</v>
       </c>
-      <c r="C258" s="13"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="4"/>
+      <c r="C258" s="13">
+        <v>320000</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G258" s="13"/>
       <c r="H258" s="11"/>
       <c r="I258" s="4"/>
     </row>
-    <row r="259" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="259" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B259" s="4">
         <v>257</v>
       </c>
-      <c r="C259" s="13"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="4"/>
+      <c r="C259" s="13">
+        <v>161400</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G259" s="13"/>
       <c r="H259" s="11"/>
       <c r="I259" s="4"/>
     </row>
-    <row r="260" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="260" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B260" s="4">
         <v>258</v>
       </c>
-      <c r="C260" s="13"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="4"/>
+      <c r="C260" s="13">
+        <v>514000</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="G260" s="13"/>
       <c r="H260" s="11"/>
       <c r="I260" s="4"/>
     </row>
-    <row r="261" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="261" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B261" s="4">
         <v>259</v>
       </c>
-      <c r="C261" s="13"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="4"/>
+      <c r="C261" s="13">
+        <v>320000</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G261" s="13"/>
       <c r="H261" s="11"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="262" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B262" s="4">
         <v>260</v>
       </c>
-      <c r="C262" s="13"/>
-      <c r="D262" s="11"/>
-      <c r="E262" s="4"/>
+      <c r="C262" s="13">
+        <v>360000</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="G262" s="13"/>
       <c r="H262" s="11"/>
       <c r="I262" s="4"/>
     </row>
-    <row r="263" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="263" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B263" s="4">
         <v>261</v>
       </c>
@@ -6698,7 +6810,7 @@
       <c r="H263" s="11"/>
       <c r="I263" s="4"/>
     </row>
-    <row r="264" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="264" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B264" s="4">
         <v>262</v>
       </c>
@@ -6709,7 +6821,7 @@
       <c r="H264" s="11"/>
       <c r="I264" s="4"/>
     </row>
-    <row r="265" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="265" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B265" s="4">
         <v>263</v>
       </c>
@@ -6720,7 +6832,7 @@
       <c r="H265" s="11"/>
       <c r="I265" s="4"/>
     </row>
-    <row r="266" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="266" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B266" s="4">
         <v>264</v>
       </c>
@@ -6731,7 +6843,7 @@
       <c r="H266" s="11"/>
       <c r="I266" s="4"/>
     </row>
-    <row r="267" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="267" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B267" s="4">
         <v>265</v>
       </c>
@@ -6742,7 +6854,7 @@
       <c r="H267" s="11"/>
       <c r="I267" s="4"/>
     </row>
-    <row r="268" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="268" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B268" s="4">
         <v>266</v>
       </c>
@@ -6753,7 +6865,7 @@
       <c r="H268" s="11"/>
       <c r="I268" s="4"/>
     </row>
-    <row r="269" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="269" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B269" s="4">
         <v>267</v>
       </c>
@@ -6764,7 +6876,7 @@
       <c r="H269" s="11"/>
       <c r="I269" s="4"/>
     </row>
-    <row r="270" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="270" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B270" s="4">
         <v>268</v>
       </c>
@@ -6775,7 +6887,7 @@
       <c r="H270" s="11"/>
       <c r="I270" s="4"/>
     </row>
-    <row r="271" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="271" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B271" s="4">
         <v>269</v>
       </c>
@@ -6786,7 +6898,7 @@
       <c r="H271" s="11"/>
       <c r="I271" s="4"/>
     </row>
-    <row r="272" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="272" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B272" s="4">
         <v>270</v>
       </c>
@@ -6797,7 +6909,7 @@
       <c r="H272" s="11"/>
       <c r="I272" s="4"/>
     </row>
-    <row r="273" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="273" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B273" s="4">
         <v>271</v>
       </c>
@@ -6808,7 +6920,7 @@
       <c r="H273" s="11"/>
       <c r="I273" s="4"/>
     </row>
-    <row r="274" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="274" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B274" s="4">
         <v>272</v>
       </c>
@@ -6819,7 +6931,7 @@
       <c r="H274" s="11"/>
       <c r="I274" s="4"/>
     </row>
-    <row r="275" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="275" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B275" s="4">
         <v>273</v>
       </c>
@@ -6830,7 +6942,7 @@
       <c r="H275" s="11"/>
       <c r="I275" s="4"/>
     </row>
-    <row r="276" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="276" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B276" s="4">
         <v>274</v>
       </c>
@@ -6841,7 +6953,7 @@
       <c r="H276" s="11"/>
       <c r="I276" s="4"/>
     </row>
-    <row r="277" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="277" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B277" s="4">
         <v>275</v>
       </c>
@@ -6852,7 +6964,7 @@
       <c r="H277" s="11"/>
       <c r="I277" s="4"/>
     </row>
-    <row r="278" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="278" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B278" s="4">
         <v>276</v>
       </c>
@@ -6863,7 +6975,7 @@
       <c r="H278" s="11"/>
       <c r="I278" s="4"/>
     </row>
-    <row r="279" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="279" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B279" s="4">
         <v>277</v>
       </c>
@@ -6874,7 +6986,7 @@
       <c r="H279" s="11"/>
       <c r="I279" s="4"/>
     </row>
-    <row r="280" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="280" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B280" s="4">
         <v>278</v>
       </c>
@@ -6885,7 +6997,7 @@
       <c r="H280" s="11"/>
       <c r="I280" s="4"/>
     </row>
-    <row r="281" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="281" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B281" s="4">
         <v>279</v>
       </c>
@@ -6896,7 +7008,7 @@
       <c r="H281" s="11"/>
       <c r="I281" s="4"/>
     </row>
-    <row r="282" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="282" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B282" s="4">
         <v>280</v>
       </c>
@@ -6907,7 +7019,7 @@
       <c r="H282" s="11"/>
       <c r="I282" s="4"/>
     </row>
-    <row r="283" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="283" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B283" s="4">
         <v>281</v>
       </c>
@@ -6918,7 +7030,7 @@
       <c r="H283" s="11"/>
       <c r="I283" s="4"/>
     </row>
-    <row r="284" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="284" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B284" s="4">
         <v>282</v>
       </c>
@@ -6929,7 +7041,7 @@
       <c r="H284" s="11"/>
       <c r="I284" s="4"/>
     </row>
-    <row r="285" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="285" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B285" s="4">
         <v>283</v>
       </c>
@@ -6940,7 +7052,7 @@
       <c r="H285" s="11"/>
       <c r="I285" s="4"/>
     </row>
-    <row r="286" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="286" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B286" s="4">
         <v>284</v>
       </c>
@@ -6951,7 +7063,7 @@
       <c r="H286" s="11"/>
       <c r="I286" s="4"/>
     </row>
-    <row r="287" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="287" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B287" s="4">
         <v>285</v>
       </c>
@@ -6962,7 +7074,7 @@
       <c r="H287" s="11"/>
       <c r="I287" s="4"/>
     </row>
-    <row r="288" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="288" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B288" s="4">
         <v>286</v>
       </c>
@@ -6973,7 +7085,7 @@
       <c r="H288" s="11"/>
       <c r="I288" s="4"/>
     </row>
-    <row r="289" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="289" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B289" s="4">
         <v>287</v>
       </c>
@@ -6984,7 +7096,7 @@
       <c r="H289" s="11"/>
       <c r="I289" s="4"/>
     </row>
-    <row r="290" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="290" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B290" s="4">
         <v>288</v>
       </c>
@@ -6995,7 +7107,7 @@
       <c r="H290" s="11"/>
       <c r="I290" s="4"/>
     </row>
-    <row r="291" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="291" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B291" s="4">
         <v>289</v>
       </c>
@@ -7006,7 +7118,7 @@
       <c r="H291" s="11"/>
       <c r="I291" s="4"/>
     </row>
-    <row r="292" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="292" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B292" s="4">
         <v>290</v>
       </c>
@@ -7017,7 +7129,7 @@
       <c r="H292" s="11"/>
       <c r="I292" s="4"/>
     </row>
-    <row r="293" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="293" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B293" s="4">
         <v>291</v>
       </c>
@@ -7028,7 +7140,7 @@
       <c r="H293" s="11"/>
       <c r="I293" s="4"/>
     </row>
-    <row r="294" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="294" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B294" s="4">
         <v>292</v>
       </c>
@@ -7039,7 +7151,7 @@
       <c r="H294" s="11"/>
       <c r="I294" s="4"/>
     </row>
-    <row r="295" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="295" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B295" s="4">
         <v>293</v>
       </c>
@@ -7050,7 +7162,7 @@
       <c r="H295" s="11"/>
       <c r="I295" s="4"/>
     </row>
-    <row r="296" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="296" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B296" s="4">
         <v>294</v>
       </c>
@@ -7061,7 +7173,7 @@
       <c r="H296" s="11"/>
       <c r="I296" s="4"/>
     </row>
-    <row r="297" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="297" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B297" s="4">
         <v>295</v>
       </c>
@@ -7072,7 +7184,7 @@
       <c r="H297" s="11"/>
       <c r="I297" s="4"/>
     </row>
-    <row r="298" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="298" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B298" s="4">
         <v>296</v>
       </c>
@@ -7083,7 +7195,7 @@
       <c r="H298" s="11"/>
       <c r="I298" s="4"/>
     </row>
-    <row r="299" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="299" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B299" s="4">
         <v>297</v>
       </c>
@@ -7094,7 +7206,7 @@
       <c r="H299" s="11"/>
       <c r="I299" s="4"/>
     </row>
-    <row r="300" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="300" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B300" s="4">
         <v>298</v>
       </c>
@@ -7105,7 +7217,7 @@
       <c r="H300" s="11"/>
       <c r="I300" s="4"/>
     </row>
-    <row r="301" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="301" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B301" s="4">
         <v>299</v>
       </c>
@@ -7116,7 +7228,7 @@
       <c r="H301" s="11"/>
       <c r="I301" s="4"/>
     </row>
-    <row r="302" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="302" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B302" s="4">
         <v>300</v>
       </c>
@@ -7127,7 +7239,7 @@
       <c r="H302" s="11"/>
       <c r="I302" s="4"/>
     </row>
-    <row r="303" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="303" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B303" s="4">
         <v>301</v>
       </c>
@@ -7138,7 +7250,7 @@
       <c r="H303" s="11"/>
       <c r="I303" s="4"/>
     </row>
-    <row r="304" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="304" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B304" s="4">
         <v>302</v>
       </c>
@@ -7149,7 +7261,7 @@
       <c r="H304" s="11"/>
       <c r="I304" s="4"/>
     </row>
-    <row r="305" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="305" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B305" s="4">
         <v>303</v>
       </c>
@@ -7160,7 +7272,7 @@
       <c r="H305" s="11"/>
       <c r="I305" s="4"/>
     </row>
-    <row r="306" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="306" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B306" s="4">
         <v>304</v>
       </c>
@@ -7171,7 +7283,7 @@
       <c r="H306" s="11"/>
       <c r="I306" s="4"/>
     </row>
-    <row r="307" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="307" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B307" s="4">
         <v>305</v>
       </c>
@@ -7182,7 +7294,7 @@
       <c r="H307" s="11"/>
       <c r="I307" s="4"/>
     </row>
-    <row r="308" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="308" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B308" s="4">
         <v>306</v>
       </c>
@@ -7193,7 +7305,7 @@
       <c r="H308" s="11"/>
       <c r="I308" s="4"/>
     </row>
-    <row r="309" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="309" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B309" s="4">
         <v>307</v>
       </c>
@@ -7204,7 +7316,7 @@
       <c r="H309" s="11"/>
       <c r="I309" s="4"/>
     </row>
-    <row r="310" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="310" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B310" s="4">
         <v>308</v>
       </c>
@@ -7215,7 +7327,7 @@
       <c r="H310" s="11"/>
       <c r="I310" s="4"/>
     </row>
-    <row r="311" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="311" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B311" s="4">
         <v>309</v>
       </c>
@@ -7226,7 +7338,7 @@
       <c r="H311" s="11"/>
       <c r="I311" s="4"/>
     </row>
-    <row r="312" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="312" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B312" s="4">
         <v>310</v>
       </c>
@@ -7237,7 +7349,7 @@
       <c r="H312" s="11"/>
       <c r="I312" s="4"/>
     </row>
-    <row r="313" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="313" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B313" s="4">
         <v>311</v>
       </c>
@@ -7248,7 +7360,7 @@
       <c r="H313" s="11"/>
       <c r="I313" s="4"/>
     </row>
-    <row r="314" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="314" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B314" s="4">
         <v>312</v>
       </c>
@@ -7259,7 +7371,7 @@
       <c r="H314" s="11"/>
       <c r="I314" s="4"/>
     </row>
-    <row r="315" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="315" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B315" s="4">
         <v>313</v>
       </c>
@@ -7270,7 +7382,7 @@
       <c r="H315" s="11"/>
       <c r="I315" s="4"/>
     </row>
-    <row r="316" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="316" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B316" s="4">
         <v>314</v>
       </c>
@@ -7281,7 +7393,7 @@
       <c r="H316" s="11"/>
       <c r="I316" s="4"/>
     </row>
-    <row r="317" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="317" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B317" s="4">
         <v>315</v>
       </c>
@@ -7292,7 +7404,7 @@
       <c r="H317" s="11"/>
       <c r="I317" s="4"/>
     </row>
-    <row r="318" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="318" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B318" s="4">
         <v>316</v>
       </c>
@@ -7303,7 +7415,7 @@
       <c r="H318" s="11"/>
       <c r="I318" s="4"/>
     </row>
-    <row r="319" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="319" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B319" s="4">
         <v>317</v>
       </c>
@@ -7314,7 +7426,7 @@
       <c r="H319" s="11"/>
       <c r="I319" s="4"/>
     </row>
-    <row r="320" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="320" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B320" s="4">
         <v>318</v>
       </c>
@@ -7325,7 +7437,7 @@
       <c r="H320" s="11"/>
       <c r="I320" s="4"/>
     </row>
-    <row r="321" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="321" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B321" s="4">
         <v>319</v>
       </c>
@@ -7336,7 +7448,7 @@
       <c r="H321" s="11"/>
       <c r="I321" s="4"/>
     </row>
-    <row r="322" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="322" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B322" s="4">
         <v>320</v>
       </c>
@@ -7347,7 +7459,7 @@
       <c r="H322" s="11"/>
       <c r="I322" s="4"/>
     </row>
-    <row r="323" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="323" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B323" s="4">
         <v>321</v>
       </c>
@@ -7358,7 +7470,7 @@
       <c r="H323" s="11"/>
       <c r="I323" s="4"/>
     </row>
-    <row r="324" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="324" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B324" s="4">
         <v>322</v>
       </c>
@@ -7369,7 +7481,7 @@
       <c r="H324" s="11"/>
       <c r="I324" s="4"/>
     </row>
-    <row r="325" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="325" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B325" s="4">
         <v>323</v>
       </c>
@@ -7380,7 +7492,7 @@
       <c r="H325" s="11"/>
       <c r="I325" s="4"/>
     </row>
-    <row r="326" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="326" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B326" s="4">
         <v>324</v>
       </c>
@@ -7391,7 +7503,7 @@
       <c r="H326" s="11"/>
       <c r="I326" s="4"/>
     </row>
-    <row r="327" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="327" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B327" s="4">
         <v>325</v>
       </c>
@@ -7402,7 +7514,7 @@
       <c r="H327" s="11"/>
       <c r="I327" s="4"/>
     </row>
-    <row r="328" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="328" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B328" s="4">
         <v>326</v>
       </c>
@@ -7413,7 +7525,7 @@
       <c r="H328" s="11"/>
       <c r="I328" s="4"/>
     </row>
-    <row r="329" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="329" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B329" s="4">
         <v>327</v>
       </c>
@@ -7424,7 +7536,7 @@
       <c r="H329" s="11"/>
       <c r="I329" s="4"/>
     </row>
-    <row r="330" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="330" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B330" s="4">
         <v>328</v>
       </c>
@@ -7435,7 +7547,7 @@
       <c r="H330" s="11"/>
       <c r="I330" s="4"/>
     </row>
-    <row r="331" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="331" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B331" s="4">
         <v>329</v>
       </c>
@@ -7446,7 +7558,7 @@
       <c r="H331" s="11"/>
       <c r="I331" s="4"/>
     </row>
-    <row r="332" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="332" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B332" s="4">
         <v>330</v>
       </c>
@@ -7457,7 +7569,7 @@
       <c r="H332" s="11"/>
       <c r="I332" s="4"/>
     </row>
-    <row r="333" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="333" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B333" s="4">
         <v>331</v>
       </c>
@@ -7468,7 +7580,7 @@
       <c r="H333" s="11"/>
       <c r="I333" s="4"/>
     </row>
-    <row r="334" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="334" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B334" s="4">
         <v>332</v>
       </c>
@@ -7479,7 +7591,7 @@
       <c r="H334" s="11"/>
       <c r="I334" s="4"/>
     </row>
-    <row r="335" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="335" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B335" s="4">
         <v>333</v>
       </c>
@@ -7490,7 +7602,7 @@
       <c r="H335" s="11"/>
       <c r="I335" s="4"/>
     </row>
-    <row r="336" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="336" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B336" s="4">
         <v>334</v>
       </c>
@@ -7501,7 +7613,7 @@
       <c r="H336" s="11"/>
       <c r="I336" s="4"/>
     </row>
-    <row r="337" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="337" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B337" s="4">
         <v>335</v>
       </c>
@@ -7512,7 +7624,7 @@
       <c r="H337" s="11"/>
       <c r="I337" s="4"/>
     </row>
-    <row r="338" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="338" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B338" s="4">
         <v>336</v>
       </c>
@@ -7523,7 +7635,7 @@
       <c r="H338" s="11"/>
       <c r="I338" s="4"/>
     </row>
-    <row r="339" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="339" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B339" s="4">
         <v>337</v>
       </c>
@@ -7534,7 +7646,7 @@
       <c r="H339" s="11"/>
       <c r="I339" s="4"/>
     </row>
-    <row r="340" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="340" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B340" s="4">
         <v>338</v>
       </c>
@@ -7545,7 +7657,7 @@
       <c r="H340" s="11"/>
       <c r="I340" s="4"/>
     </row>
-    <row r="341" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="341" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B341" s="4">
         <v>339</v>
       </c>
@@ -7556,7 +7668,7 @@
       <c r="H341" s="11"/>
       <c r="I341" s="4"/>
     </row>
-    <row r="342" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="342" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B342" s="4">
         <v>340</v>
       </c>
@@ -7567,7 +7679,7 @@
       <c r="H342" s="11"/>
       <c r="I342" s="4"/>
     </row>
-    <row r="343" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="343" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B343" s="4">
         <v>341</v>
       </c>
@@ -7578,7 +7690,7 @@
       <c r="H343" s="11"/>
       <c r="I343" s="4"/>
     </row>
-    <row r="344" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="344" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B344" s="4">
         <v>342</v>
       </c>
@@ -7589,7 +7701,7 @@
       <c r="H344" s="11"/>
       <c r="I344" s="4"/>
     </row>
-    <row r="345" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="345" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B345" s="4">
         <v>343</v>
       </c>
@@ -7600,7 +7712,7 @@
       <c r="H345" s="11"/>
       <c r="I345" s="4"/>
     </row>
-    <row r="346" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="346" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B346" s="4">
         <v>344</v>
       </c>
@@ -7611,7 +7723,7 @@
       <c r="H346" s="11"/>
       <c r="I346" s="4"/>
     </row>
-    <row r="347" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="347" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B347" s="4">
         <v>345</v>
       </c>
@@ -7622,7 +7734,7 @@
       <c r="H347" s="11"/>
       <c r="I347" s="4"/>
     </row>
-    <row r="348" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="348" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B348" s="4">
         <v>346</v>
       </c>
@@ -7633,7 +7745,7 @@
       <c r="H348" s="11"/>
       <c r="I348" s="4"/>
     </row>
-    <row r="349" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="349" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B349" s="4">
         <v>347</v>
       </c>
@@ -7644,7 +7756,7 @@
       <c r="H349" s="11"/>
       <c r="I349" s="4"/>
     </row>
-    <row r="350" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="350" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B350" s="4">
         <v>348</v>
       </c>
@@ -7655,7 +7767,7 @@
       <c r="H350" s="11"/>
       <c r="I350" s="4"/>
     </row>
-    <row r="351" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="351" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B351" s="4">
         <v>349</v>
       </c>
@@ -7666,7 +7778,7 @@
       <c r="H351" s="11"/>
       <c r="I351" s="4"/>
     </row>
-    <row r="352" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="352" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B352" s="4">
         <v>350</v>
       </c>
@@ -7677,7 +7789,7 @@
       <c r="H352" s="11"/>
       <c r="I352" s="4"/>
     </row>
-    <row r="353" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="353" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B353" s="4">
         <v>351</v>
       </c>
@@ -7688,7 +7800,7 @@
       <c r="H353" s="11"/>
       <c r="I353" s="4"/>
     </row>
-    <row r="354" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="354" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B354" s="4">
         <v>352</v>
       </c>
@@ -7699,7 +7811,7 @@
       <c r="H354" s="11"/>
       <c r="I354" s="4"/>
     </row>
-    <row r="355" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="355" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B355" s="4">
         <v>353</v>
       </c>
@@ -7710,7 +7822,7 @@
       <c r="H355" s="11"/>
       <c r="I355" s="4"/>
     </row>
-    <row r="356" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="356" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B356" s="4">
         <v>354</v>
       </c>
@@ -7721,7 +7833,7 @@
       <c r="H356" s="11"/>
       <c r="I356" s="4"/>
     </row>
-    <row r="357" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="357" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B357" s="4">
         <v>355</v>
       </c>
@@ -7732,7 +7844,7 @@
       <c r="H357" s="11"/>
       <c r="I357" s="4"/>
     </row>
-    <row r="358" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="358" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B358" s="4">
         <v>356</v>
       </c>
@@ -7743,7 +7855,7 @@
       <c r="H358" s="11"/>
       <c r="I358" s="4"/>
     </row>
-    <row r="359" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="359" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B359" s="4">
         <v>357</v>
       </c>
@@ -7754,7 +7866,7 @@
       <c r="H359" s="11"/>
       <c r="I359" s="4"/>
     </row>
-    <row r="360" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="360" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B360" s="4">
         <v>358</v>
       </c>
@@ -7765,7 +7877,7 @@
       <c r="H360" s="11"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="361" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B361" s="4">
         <v>359</v>
       </c>
@@ -7776,7 +7888,7 @@
       <c r="H361" s="11"/>
       <c r="I361" s="4"/>
     </row>
-    <row r="362" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="362" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B362" s="4">
         <v>360</v>
       </c>
@@ -7787,7 +7899,7 @@
       <c r="H362" s="11"/>
       <c r="I362" s="4"/>
     </row>
-    <row r="363" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="363" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B363" s="4">
         <v>361</v>
       </c>
@@ -7798,7 +7910,7 @@
       <c r="H363" s="11"/>
       <c r="I363" s="4"/>
     </row>
-    <row r="364" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="364" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B364" s="4">
         <v>362</v>
       </c>
@@ -7809,7 +7921,7 @@
       <c r="H364" s="11"/>
       <c r="I364" s="4"/>
     </row>
-    <row r="365" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="365" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B365" s="4">
         <v>363</v>
       </c>
@@ -7820,7 +7932,7 @@
       <c r="H365" s="11"/>
       <c r="I365" s="4"/>
     </row>
-    <row r="366" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="366" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B366" s="4">
         <v>364</v>
       </c>
@@ -7831,7 +7943,7 @@
       <c r="H366" s="11"/>
       <c r="I366" s="4"/>
     </row>
-    <row r="367" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="367" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B367" s="4">
         <v>365</v>
       </c>
@@ -7842,7 +7954,7 @@
       <c r="H367" s="11"/>
       <c r="I367" s="4"/>
     </row>
-    <row r="368" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="368" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B368" s="4">
         <v>366</v>
       </c>
@@ -7853,7 +7965,7 @@
       <c r="H368" s="11"/>
       <c r="I368" s="4"/>
     </row>
-    <row r="369" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="369" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B369" s="4">
         <v>367</v>
       </c>
@@ -7864,7 +7976,7 @@
       <c r="H369" s="11"/>
       <c r="I369" s="4"/>
     </row>
-    <row r="370" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="370" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B370" s="4">
         <v>368</v>
       </c>
@@ -7875,7 +7987,7 @@
       <c r="H370" s="11"/>
       <c r="I370" s="4"/>
     </row>
-    <row r="371" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="371" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B371" s="4">
         <v>369</v>
       </c>
@@ -7886,7 +7998,7 @@
       <c r="H371" s="11"/>
       <c r="I371" s="4"/>
     </row>
-    <row r="372" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="372" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B372" s="4">
         <v>370</v>
       </c>
@@ -7897,7 +8009,7 @@
       <c r="H372" s="11"/>
       <c r="I372" s="4"/>
     </row>
-    <row r="373" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="373" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B373" s="4">
         <v>371</v>
       </c>
@@ -7908,7 +8020,7 @@
       <c r="H373" s="11"/>
       <c r="I373" s="4"/>
     </row>
-    <row r="374" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="374" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B374" s="4">
         <v>372</v>
       </c>
@@ -7919,7 +8031,7 @@
       <c r="H374" s="11"/>
       <c r="I374" s="4"/>
     </row>
-    <row r="375" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="375" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B375" s="4">
         <v>373</v>
       </c>
@@ -7930,7 +8042,7 @@
       <c r="H375" s="11"/>
       <c r="I375" s="4"/>
     </row>
-    <row r="376" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="376" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B376" s="4">
         <v>374</v>
       </c>
@@ -7941,7 +8053,7 @@
       <c r="H376" s="11"/>
       <c r="I376" s="4"/>
     </row>
-    <row r="377" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="377" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B377" s="4">
         <v>375</v>
       </c>
@@ -7952,7 +8064,7 @@
       <c r="H377" s="11"/>
       <c r="I377" s="4"/>
     </row>
-    <row r="378" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="378" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B378" s="4">
         <v>376</v>
       </c>
@@ -7963,7 +8075,7 @@
       <c r="H378" s="11"/>
       <c r="I378" s="4"/>
     </row>
-    <row r="379" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="379" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B379" s="4">
         <v>377</v>
       </c>
@@ -7974,7 +8086,7 @@
       <c r="H379" s="11"/>
       <c r="I379" s="4"/>
     </row>
-    <row r="380" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="380" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B380" s="4">
         <v>378</v>
       </c>
@@ -7985,7 +8097,7 @@
       <c r="H380" s="11"/>
       <c r="I380" s="4"/>
     </row>
-    <row r="381" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="381" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B381" s="4">
         <v>379</v>
       </c>
@@ -7996,7 +8108,7 @@
       <c r="H381" s="11"/>
       <c r="I381" s="4"/>
     </row>
-    <row r="382" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="382" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B382" s="4">
         <v>380</v>
       </c>
@@ -8007,7 +8119,7 @@
       <c r="H382" s="11"/>
       <c r="I382" s="4"/>
     </row>
-    <row r="383" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="383" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B383" s="4">
         <v>381</v>
       </c>
@@ -8018,7 +8130,7 @@
       <c r="H383" s="11"/>
       <c r="I383" s="4"/>
     </row>
-    <row r="384" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="384" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B384" s="4">
         <v>382</v>
       </c>
@@ -8029,7 +8141,7 @@
       <c r="H384" s="11"/>
       <c r="I384" s="4"/>
     </row>
-    <row r="385" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="385" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B385" s="4">
         <v>383</v>
       </c>
@@ -8040,7 +8152,7 @@
       <c r="H385" s="11"/>
       <c r="I385" s="4"/>
     </row>
-    <row r="386" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="386" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B386" s="4">
         <v>384</v>
       </c>
@@ -8051,7 +8163,7 @@
       <c r="H386" s="11"/>
       <c r="I386" s="4"/>
     </row>
-    <row r="387" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="387" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B387" s="4">
         <v>385</v>
       </c>
@@ -8062,7 +8174,7 @@
       <c r="H387" s="11"/>
       <c r="I387" s="4"/>
     </row>
-    <row r="388" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="388" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B388" s="4">
         <v>386</v>
       </c>
@@ -8073,7 +8185,7 @@
       <c r="H388" s="11"/>
       <c r="I388" s="4"/>
     </row>
-    <row r="389" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="389" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B389" s="4">
         <v>387</v>
       </c>
@@ -8084,7 +8196,7 @@
       <c r="H389" s="11"/>
       <c r="I389" s="4"/>
     </row>
-    <row r="390" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="390" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B390" s="4">
         <v>388</v>
       </c>
@@ -8095,7 +8207,7 @@
       <c r="H390" s="11"/>
       <c r="I390" s="4"/>
     </row>
-    <row r="391" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="391" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B391" s="4">
         <v>389</v>
       </c>
@@ -8106,7 +8218,7 @@
       <c r="H391" s="11"/>
       <c r="I391" s="4"/>
     </row>
-    <row r="392" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="392" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B392" s="4">
         <v>390</v>
       </c>
@@ -8117,7 +8229,7 @@
       <c r="H392" s="11"/>
       <c r="I392" s="4"/>
     </row>
-    <row r="393" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="393" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B393" s="4">
         <v>391</v>
       </c>
@@ -8128,7 +8240,7 @@
       <c r="H393" s="11"/>
       <c r="I393" s="4"/>
     </row>
-    <row r="394" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="394" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B394" s="4">
         <v>392</v>
       </c>
@@ -8139,7 +8251,7 @@
       <c r="H394" s="11"/>
       <c r="I394" s="4"/>
     </row>
-    <row r="395" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="395" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B395" s="4">
         <v>393</v>
       </c>
@@ -8150,7 +8262,7 @@
       <c r="H395" s="11"/>
       <c r="I395" s="4"/>
     </row>
-    <row r="396" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="396" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B396" s="4">
         <v>394</v>
       </c>
@@ -8161,7 +8273,7 @@
       <c r="H396" s="11"/>
       <c r="I396" s="4"/>
     </row>
-    <row r="397" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="397" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B397" s="4">
         <v>395</v>
       </c>
@@ -8172,7 +8284,7 @@
       <c r="H397" s="11"/>
       <c r="I397" s="4"/>
     </row>
-    <row r="398" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="398" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B398" s="4">
         <v>396</v>
       </c>
@@ -8183,7 +8295,7 @@
       <c r="H398" s="11"/>
       <c r="I398" s="4"/>
     </row>
-    <row r="399" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="399" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B399" s="4">
         <v>397</v>
       </c>
@@ -8194,7 +8306,7 @@
       <c r="H399" s="11"/>
       <c r="I399" s="4"/>
     </row>
-    <row r="400" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="400" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B400" s="4">
         <v>398</v>
       </c>
@@ -8205,7 +8317,7 @@
       <c r="H400" s="11"/>
       <c r="I400" s="4"/>
     </row>
-    <row r="401" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="401" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B401" s="4">
         <v>399</v>
       </c>
@@ -8216,7 +8328,7 @@
       <c r="H401" s="11"/>
       <c r="I401" s="4"/>
     </row>
-    <row r="402" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="402" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B402" s="4">
         <v>400</v>
       </c>
@@ -8227,7 +8339,7 @@
       <c r="H402" s="11"/>
       <c r="I402" s="4"/>
     </row>
-    <row r="403" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="403" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B403" s="4">
         <v>401</v>
       </c>
@@ -8238,7 +8350,7 @@
       <c r="H403" s="11"/>
       <c r="I403" s="4"/>
     </row>
-    <row r="404" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="404" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B404" s="4">
         <v>402</v>
       </c>
@@ -8249,7 +8361,7 @@
       <c r="H404" s="11"/>
       <c r="I404" s="4"/>
     </row>
-    <row r="405" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="405" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B405" s="4">
         <v>403</v>
       </c>
@@ -8260,7 +8372,7 @@
       <c r="H405" s="11"/>
       <c r="I405" s="4"/>
     </row>
-    <row r="406" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="406" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B406" s="4">
         <v>404</v>
       </c>
@@ -8271,7 +8383,7 @@
       <c r="H406" s="11"/>
       <c r="I406" s="4"/>
     </row>
-    <row r="407" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="407" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B407" s="4">
         <v>405</v>
       </c>
@@ -8282,7 +8394,7 @@
       <c r="H407" s="11"/>
       <c r="I407" s="4"/>
     </row>
-    <row r="408" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="408" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B408" s="4">
         <v>406</v>
       </c>
@@ -8293,7 +8405,7 @@
       <c r="H408" s="11"/>
       <c r="I408" s="4"/>
     </row>
-    <row r="409" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="409" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B409" s="4">
         <v>407</v>
       </c>
@@ -8304,7 +8416,7 @@
       <c r="H409" s="11"/>
       <c r="I409" s="4"/>
     </row>
-    <row r="410" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="410" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B410" s="4">
         <v>408</v>
       </c>
@@ -8315,7 +8427,7 @@
       <c r="H410" s="11"/>
       <c r="I410" s="4"/>
     </row>
-    <row r="411" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="411" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B411" s="4">
         <v>409</v>
       </c>
@@ -8326,7 +8438,7 @@
       <c r="H411" s="11"/>
       <c r="I411" s="4"/>
     </row>
-    <row r="412" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="412" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B412" s="4">
         <v>410</v>
       </c>
@@ -8337,7 +8449,7 @@
       <c r="H412" s="11"/>
       <c r="I412" s="4"/>
     </row>
-    <row r="413" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="413" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B413" s="4">
         <v>411</v>
       </c>
@@ -8348,7 +8460,7 @@
       <c r="H413" s="11"/>
       <c r="I413" s="4"/>
     </row>
-    <row r="414" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="414" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B414" s="4">
         <v>412</v>
       </c>
@@ -8359,7 +8471,7 @@
       <c r="H414" s="11"/>
       <c r="I414" s="4"/>
     </row>
-    <row r="415" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="415" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B415" s="4">
         <v>413</v>
       </c>
@@ -8370,7 +8482,7 @@
       <c r="H415" s="11"/>
       <c r="I415" s="4"/>
     </row>
-    <row r="416" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="416" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B416" s="4">
         <v>414</v>
       </c>
@@ -8381,7 +8493,7 @@
       <c r="H416" s="11"/>
       <c r="I416" s="4"/>
     </row>
-    <row r="417" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="417" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B417" s="4">
         <v>415</v>
       </c>
@@ -8392,7 +8504,7 @@
       <c r="H417" s="11"/>
       <c r="I417" s="4"/>
     </row>
-    <row r="418" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="418" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B418" s="4">
         <v>416</v>
       </c>
@@ -8403,7 +8515,7 @@
       <c r="H418" s="11"/>
       <c r="I418" s="4"/>
     </row>
-    <row r="419" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="419" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B419" s="4">
         <v>417</v>
       </c>
@@ -8414,7 +8526,7 @@
       <c r="H419" s="11"/>
       <c r="I419" s="4"/>
     </row>
-    <row r="420" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="420" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B420" s="4">
         <v>418</v>
       </c>
@@ -8425,7 +8537,7 @@
       <c r="H420" s="11"/>
       <c r="I420" s="4"/>
     </row>
-    <row r="421" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="421" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B421" s="4">
         <v>419</v>
       </c>
@@ -8436,7 +8548,7 @@
       <c r="H421" s="11"/>
       <c r="I421" s="4"/>
     </row>
-    <row r="422" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="422" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B422" s="4">
         <v>420</v>
       </c>
@@ -8447,7 +8559,7 @@
       <c r="H422" s="11"/>
       <c r="I422" s="4"/>
     </row>
-    <row r="423" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="423" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B423" s="4">
         <v>421</v>
       </c>
@@ -8458,7 +8570,7 @@
       <c r="H423" s="11"/>
       <c r="I423" s="4"/>
     </row>
-    <row r="424" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="424" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B424" s="4">
         <v>422</v>
       </c>
@@ -8469,7 +8581,7 @@
       <c r="H424" s="11"/>
       <c r="I424" s="4"/>
     </row>
-    <row r="425" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="425" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B425" s="4">
         <v>423</v>
       </c>
@@ -8480,7 +8592,7 @@
       <c r="H425" s="11"/>
       <c r="I425" s="4"/>
     </row>
-    <row r="426" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="426" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B426" s="4">
         <v>424</v>
       </c>
@@ -8491,7 +8603,7 @@
       <c r="H426" s="11"/>
       <c r="I426" s="4"/>
     </row>
-    <row r="427" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="427" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B427" s="4">
         <v>425</v>
       </c>
@@ -8502,7 +8614,7 @@
       <c r="H427" s="11"/>
       <c r="I427" s="4"/>
     </row>
-    <row r="428" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="428" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B428" s="4">
         <v>426</v>
       </c>
@@ -8513,7 +8625,7 @@
       <c r="H428" s="11"/>
       <c r="I428" s="4"/>
     </row>
-    <row r="429" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="429" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B429" s="4">
         <v>427</v>
       </c>
@@ -8524,7 +8636,7 @@
       <c r="H429" s="11"/>
       <c r="I429" s="4"/>
     </row>
-    <row r="430" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="430" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B430" s="4">
         <v>428</v>
       </c>
@@ -8535,7 +8647,7 @@
       <c r="H430" s="11"/>
       <c r="I430" s="4"/>
     </row>
-    <row r="431" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="431" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B431" s="4">
         <v>429</v>
       </c>
@@ -8546,7 +8658,7 @@
       <c r="H431" s="11"/>
       <c r="I431" s="4"/>
     </row>
-    <row r="432" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="432" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B432" s="4">
         <v>430</v>
       </c>
@@ -8557,7 +8669,7 @@
       <c r="H432" s="11"/>
       <c r="I432" s="4"/>
     </row>
-    <row r="433" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="433" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B433" s="4">
         <v>431</v>
       </c>
@@ -8568,7 +8680,7 @@
       <c r="H433" s="11"/>
       <c r="I433" s="4"/>
     </row>
-    <row r="434" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="434" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B434" s="4">
         <v>432</v>
       </c>
@@ -8579,7 +8691,7 @@
       <c r="H434" s="11"/>
       <c r="I434" s="4"/>
     </row>
-    <row r="435" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="435" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B435" s="4">
         <v>433</v>
       </c>
@@ -8590,7 +8702,7 @@
       <c r="H435" s="11"/>
       <c r="I435" s="4"/>
     </row>
-    <row r="436" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="436" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B436" s="4">
         <v>434</v>
       </c>
@@ -8601,7 +8713,7 @@
       <c r="H436" s="11"/>
       <c r="I436" s="4"/>
     </row>
-    <row r="437" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="437" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B437" s="4">
         <v>435</v>
       </c>
@@ -8612,7 +8724,7 @@
       <c r="H437" s="11"/>
       <c r="I437" s="4"/>
     </row>
-    <row r="438" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="438" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B438" s="4">
         <v>436</v>
       </c>
@@ -8623,7 +8735,7 @@
       <c r="H438" s="11"/>
       <c r="I438" s="4"/>
     </row>
-    <row r="439" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="439" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B439" s="4">
         <v>437</v>
       </c>
@@ -8634,7 +8746,7 @@
       <c r="H439" s="11"/>
       <c r="I439" s="4"/>
     </row>
-    <row r="440" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="440" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B440" s="4">
         <v>438</v>
       </c>
@@ -8645,7 +8757,7 @@
       <c r="H440" s="11"/>
       <c r="I440" s="4"/>
     </row>
-    <row r="441" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="441" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B441" s="4">
         <v>439</v>
       </c>
@@ -8656,7 +8768,7 @@
       <c r="H441" s="11"/>
       <c r="I441" s="4"/>
     </row>
-    <row r="442" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="442" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B442" s="4">
         <v>440</v>
       </c>
@@ -8667,7 +8779,7 @@
       <c r="H442" s="11"/>
       <c r="I442" s="4"/>
     </row>
-    <row r="443" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="443" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B443" s="4">
         <v>441</v>
       </c>
@@ -8678,7 +8790,7 @@
       <c r="H443" s="11"/>
       <c r="I443" s="4"/>
     </row>
-    <row r="444" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="444" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B444" s="4">
         <v>442</v>
       </c>
@@ -8689,7 +8801,7 @@
       <c r="H444" s="11"/>
       <c r="I444" s="4"/>
     </row>
-    <row r="445" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="445" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B445" s="4">
         <v>443</v>
       </c>
@@ -8700,7 +8812,7 @@
       <c r="H445" s="11"/>
       <c r="I445" s="4"/>
     </row>
-    <row r="446" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="446" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B446" s="4">
         <v>444</v>
       </c>
@@ -8711,7 +8823,7 @@
       <c r="H446" s="11"/>
       <c r="I446" s="4"/>
     </row>
-    <row r="447" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="447" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B447" s="4">
         <v>445</v>
       </c>
@@ -8722,7 +8834,7 @@
       <c r="H447" s="11"/>
       <c r="I447" s="4"/>
     </row>
-    <row r="448" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="448" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B448" s="4">
         <v>446</v>
       </c>
@@ -8733,7 +8845,7 @@
       <c r="H448" s="11"/>
       <c r="I448" s="4"/>
     </row>
-    <row r="449" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="449" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B449" s="4">
         <v>447</v>
       </c>
@@ -8744,7 +8856,7 @@
       <c r="H449" s="11"/>
       <c r="I449" s="4"/>
     </row>
-    <row r="450" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="450" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B450" s="4">
         <v>448</v>
       </c>
@@ -8755,7 +8867,7 @@
       <c r="H450" s="11"/>
       <c r="I450" s="4"/>
     </row>
-    <row r="451" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="451" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B451" s="4">
         <v>449</v>
       </c>
@@ -8766,7 +8878,7 @@
       <c r="H451" s="11"/>
       <c r="I451" s="4"/>
     </row>
-    <row r="452" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="452" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B452" s="4">
         <v>450</v>
       </c>
@@ -8777,7 +8889,7 @@
       <c r="H452" s="11"/>
       <c r="I452" s="4"/>
     </row>
-    <row r="453" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="453" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B453" s="4">
         <v>451</v>
       </c>
@@ -8788,7 +8900,7 @@
       <c r="H453" s="11"/>
       <c r="I453" s="4"/>
     </row>
-    <row r="454" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="454" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B454" s="4">
         <v>452</v>
       </c>
@@ -8799,7 +8911,7 @@
       <c r="H454" s="11"/>
       <c r="I454" s="4"/>
     </row>
-    <row r="455" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="455" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B455" s="4">
         <v>453</v>
       </c>
@@ -8810,7 +8922,7 @@
       <c r="H455" s="11"/>
       <c r="I455" s="4"/>
     </row>
-    <row r="456" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="456" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B456" s="4">
         <v>454</v>
       </c>
@@ -8821,7 +8933,7 @@
       <c r="H456" s="11"/>
       <c r="I456" s="4"/>
     </row>
-    <row r="457" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="457" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B457" s="4">
         <v>455</v>
       </c>
@@ -8832,7 +8944,7 @@
       <c r="H457" s="11"/>
       <c r="I457" s="4"/>
     </row>
-    <row r="458" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="458" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B458" s="4">
         <v>456</v>
       </c>
@@ -8843,7 +8955,7 @@
       <c r="H458" s="11"/>
       <c r="I458" s="4"/>
     </row>
-    <row r="459" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="459" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B459" s="4">
         <v>457</v>
       </c>
@@ -8854,7 +8966,7 @@
       <c r="H459" s="11"/>
       <c r="I459" s="4"/>
     </row>
-    <row r="460" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="460" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B460" s="4">
         <v>458</v>
       </c>
@@ -8865,7 +8977,7 @@
       <c r="H460" s="11"/>
       <c r="I460" s="4"/>
     </row>
-    <row r="461" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="461" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B461" s="4">
         <v>459</v>
       </c>
@@ -8876,7 +8988,7 @@
       <c r="H461" s="11"/>
       <c r="I461" s="4"/>
     </row>
-    <row r="462" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="462" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B462" s="4">
         <v>460</v>
       </c>
@@ -8887,7 +8999,7 @@
       <c r="H462" s="11"/>
       <c r="I462" s="4"/>
     </row>
-    <row r="463" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="463" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B463" s="4">
         <v>461</v>
       </c>
@@ -8898,7 +9010,7 @@
       <c r="H463" s="11"/>
       <c r="I463" s="4"/>
     </row>
-    <row r="464" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="464" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B464" s="4">
         <v>462</v>
       </c>
@@ -8909,7 +9021,7 @@
       <c r="H464" s="11"/>
       <c r="I464" s="4"/>
     </row>
-    <row r="465" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="465" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B465" s="4">
         <v>463</v>
       </c>
@@ -8920,7 +9032,7 @@
       <c r="H465" s="11"/>
       <c r="I465" s="4"/>
     </row>
-    <row r="466" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="466" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B466" s="4">
         <v>464</v>
       </c>
@@ -8931,7 +9043,7 @@
       <c r="H466" s="11"/>
       <c r="I466" s="4"/>
     </row>
-    <row r="467" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="467" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B467" s="4">
         <v>465</v>
       </c>
@@ -8942,7 +9054,7 @@
       <c r="H467" s="11"/>
       <c r="I467" s="4"/>
     </row>
-    <row r="468" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="468" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B468" s="4">
         <v>466</v>
       </c>
@@ -8953,7 +9065,7 @@
       <c r="H468" s="11"/>
       <c r="I468" s="4"/>
     </row>
-    <row r="469" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="469" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B469" s="4">
         <v>467</v>
       </c>
@@ -8964,7 +9076,7 @@
       <c r="H469" s="11"/>
       <c r="I469" s="4"/>
     </row>
-    <row r="470" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="470" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B470" s="4">
         <v>468</v>
       </c>
@@ -8975,7 +9087,7 @@
       <c r="H470" s="11"/>
       <c r="I470" s="4"/>
     </row>
-    <row r="471" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="471" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B471" s="4">
         <v>469</v>
       </c>
@@ -8986,7 +9098,7 @@
       <c r="H471" s="11"/>
       <c r="I471" s="4"/>
     </row>
-    <row r="472" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="472" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B472" s="4">
         <v>470</v>
       </c>
@@ -8997,7 +9109,7 @@
       <c r="H472" s="11"/>
       <c r="I472" s="4"/>
     </row>
-    <row r="473" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="473" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B473" s="4">
         <v>471</v>
       </c>
@@ -9008,7 +9120,7 @@
       <c r="H473" s="11"/>
       <c r="I473" s="4"/>
     </row>
-    <row r="474" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="474" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B474" s="4">
         <v>472</v>
       </c>
@@ -9019,7 +9131,7 @@
       <c r="H474" s="11"/>
       <c r="I474" s="4"/>
     </row>
-    <row r="475" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="475" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B475" s="4">
         <v>473</v>
       </c>
@@ -9030,7 +9142,7 @@
       <c r="H475" s="11"/>
       <c r="I475" s="4"/>
     </row>
-    <row r="476" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="476" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B476" s="4">
         <v>474</v>
       </c>
@@ -9041,7 +9153,7 @@
       <c r="H476" s="11"/>
       <c r="I476" s="4"/>
     </row>
-    <row r="477" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="477" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B477" s="4">
         <v>475</v>
       </c>
@@ -9052,7 +9164,7 @@
       <c r="H477" s="11"/>
       <c r="I477" s="4"/>
     </row>
-    <row r="478" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="478" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B478" s="4">
         <v>476</v>
       </c>
@@ -9063,7 +9175,7 @@
       <c r="H478" s="11"/>
       <c r="I478" s="4"/>
     </row>
-    <row r="479" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="479" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B479" s="4">
         <v>477</v>
       </c>
@@ -9074,7 +9186,7 @@
       <c r="H479" s="11"/>
       <c r="I479" s="4"/>
     </row>
-    <row r="480" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="480" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B480" s="4">
         <v>478</v>
       </c>
@@ -9085,7 +9197,7 @@
       <c r="H480" s="11"/>
       <c r="I480" s="4"/>
     </row>
-    <row r="481" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="481" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B481" s="4">
         <v>479</v>
       </c>
@@ -9096,7 +9208,7 @@
       <c r="H481" s="11"/>
       <c r="I481" s="4"/>
     </row>
-    <row r="482" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="482" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B482" s="4">
         <v>480</v>
       </c>
@@ -9107,7 +9219,7 @@
       <c r="H482" s="11"/>
       <c r="I482" s="4"/>
     </row>
-    <row r="483" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="483" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B483" s="4">
         <v>481</v>
       </c>
@@ -9118,7 +9230,7 @@
       <c r="H483" s="11"/>
       <c r="I483" s="4"/>
     </row>
-    <row r="484" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="484" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B484" s="4">
         <v>482</v>
       </c>
@@ -9129,7 +9241,7 @@
       <c r="H484" s="11"/>
       <c r="I484" s="4"/>
     </row>
-    <row r="485" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="485" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B485" s="4">
         <v>483</v>
       </c>
@@ -9140,7 +9252,7 @@
       <c r="H485" s="11"/>
       <c r="I485" s="4"/>
     </row>
-    <row r="486" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="486" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B486" s="4">
         <v>484</v>
       </c>
@@ -9151,7 +9263,7 @@
       <c r="H486" s="11"/>
       <c r="I486" s="4"/>
     </row>
-    <row r="487" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="487" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B487" s="4">
         <v>485</v>
       </c>
@@ -9162,7 +9274,7 @@
       <c r="H487" s="11"/>
       <c r="I487" s="4"/>
     </row>
-    <row r="488" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="488" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B488" s="4">
         <v>486</v>
       </c>
@@ -9173,7 +9285,7 @@
       <c r="H488" s="11"/>
       <c r="I488" s="4"/>
     </row>
-    <row r="489" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="489" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B489" s="4">
         <v>487</v>
       </c>
@@ -9184,7 +9296,7 @@
       <c r="H489" s="11"/>
       <c r="I489" s="4"/>
     </row>
-    <row r="490" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="490" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B490" s="4">
         <v>488</v>
       </c>
@@ -9195,7 +9307,7 @@
       <c r="H490" s="11"/>
       <c r="I490" s="4"/>
     </row>
-    <row r="491" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="491" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B491" s="4">
         <v>489</v>
       </c>
@@ -9206,7 +9318,7 @@
       <c r="H491" s="11"/>
       <c r="I491" s="4"/>
     </row>
-    <row r="492" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="492" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B492" s="4">
         <v>490</v>
       </c>
@@ -9217,7 +9329,7 @@
       <c r="H492" s="11"/>
       <c r="I492" s="4"/>
     </row>
-    <row r="493" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="493" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B493" s="4">
         <v>491</v>
       </c>
@@ -9228,7 +9340,7 @@
       <c r="H493" s="11"/>
       <c r="I493" s="4"/>
     </row>
-    <row r="494" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="494" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B494" s="4">
         <v>492</v>
       </c>
@@ -9239,7 +9351,7 @@
       <c r="H494" s="11"/>
       <c r="I494" s="4"/>
     </row>
-    <row r="495" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="495" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B495" s="4">
         <v>493</v>
       </c>
@@ -9250,7 +9362,7 @@
       <c r="H495" s="11"/>
       <c r="I495" s="4"/>
     </row>
-    <row r="496" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="496" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B496" s="4">
         <v>494</v>
       </c>
@@ -9261,7 +9373,7 @@
       <c r="H496" s="11"/>
       <c r="I496" s="4"/>
     </row>
-    <row r="497" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="497" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B497" s="4">
         <v>495</v>
       </c>
@@ -9272,7 +9384,7 @@
       <c r="H497" s="11"/>
       <c r="I497" s="4"/>
     </row>
-    <row r="498" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="498" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B498" s="4">
         <v>496</v>
       </c>
@@ -9283,7 +9395,7 @@
       <c r="H498" s="11"/>
       <c r="I498" s="4"/>
     </row>
-    <row r="499" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="499" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B499" s="4">
         <v>497</v>
       </c>
@@ -9294,7 +9406,7 @@
       <c r="H499" s="11"/>
       <c r="I499" s="4"/>
     </row>
-    <row r="500" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="500" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B500" s="4">
         <v>498</v>
       </c>
@@ -9305,7 +9417,7 @@
       <c r="H500" s="11"/>
       <c r="I500" s="4"/>
     </row>
-    <row r="501" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="501" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B501" s="4">
         <v>499</v>
       </c>
@@ -9316,7 +9428,7 @@
       <c r="H501" s="11"/>
       <c r="I501" s="4"/>
     </row>
-    <row r="502" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="502" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B502" s="4">
         <v>500</v>
       </c>
@@ -9327,7 +9439,7 @@
       <c r="H502" s="11"/>
       <c r="I502" s="4"/>
     </row>
-    <row r="503" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="503" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B503" s="4">
         <v>501</v>
       </c>
@@ -9338,7 +9450,7 @@
       <c r="H503" s="11"/>
       <c r="I503" s="4"/>
     </row>
-    <row r="504" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="504" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B504" s="4">
         <v>502</v>
       </c>
@@ -9349,7 +9461,7 @@
       <c r="H504" s="11"/>
       <c r="I504" s="4"/>
     </row>
-    <row r="505" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="505" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B505" s="4">
         <v>503</v>
       </c>
@@ -9360,7 +9472,7 @@
       <c r="H505" s="11"/>
       <c r="I505" s="4"/>
     </row>
-    <row r="506" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="506" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B506" s="4">
         <v>504</v>
       </c>
@@ -9371,7 +9483,7 @@
       <c r="H506" s="11"/>
       <c r="I506" s="4"/>
     </row>
-    <row r="507" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="507" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B507" s="4">
         <v>505</v>
       </c>
@@ -9382,7 +9494,7 @@
       <c r="H507" s="11"/>
       <c r="I507" s="4"/>
     </row>
-    <row r="508" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="508" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B508" s="4">
         <v>506</v>
       </c>
@@ -9393,7 +9505,7 @@
       <c r="H508" s="11"/>
       <c r="I508" s="4"/>
     </row>
-    <row r="509" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="509" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B509" s="4">
         <v>507</v>
       </c>
@@ -9404,7 +9516,7 @@
       <c r="H509" s="11"/>
       <c r="I509" s="4"/>
     </row>
-    <row r="510" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="510" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B510" s="4">
         <v>508</v>
       </c>
@@ -9415,7 +9527,7 @@
       <c r="H510" s="11"/>
       <c r="I510" s="4"/>
     </row>
-    <row r="511" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="511" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B511" s="4">
         <v>509</v>
       </c>
@@ -9426,7 +9538,7 @@
       <c r="H511" s="11"/>
       <c r="I511" s="4"/>
     </row>
-    <row r="512" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="512" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B512" s="4">
         <v>510</v>
       </c>
@@ -9437,7 +9549,7 @@
       <c r="H512" s="11"/>
       <c r="I512" s="4"/>
     </row>
-    <row r="513" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="513" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B513" s="4">
         <v>511</v>
       </c>
@@ -9448,7 +9560,7 @@
       <c r="H513" s="11"/>
       <c r="I513" s="4"/>
     </row>
-    <row r="514" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="514" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B514" s="4">
         <v>512</v>
       </c>
@@ -9459,7 +9571,7 @@
       <c r="H514" s="11"/>
       <c r="I514" s="4"/>
     </row>
-    <row r="515" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="515" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B515" s="4">
         <v>513</v>
       </c>
@@ -9470,7 +9582,7 @@
       <c r="H515" s="11"/>
       <c r="I515" s="4"/>
     </row>
-    <row r="516" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="516" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B516" s="4">
         <v>514</v>
       </c>
@@ -9481,7 +9593,7 @@
       <c r="H516" s="11"/>
       <c r="I516" s="4"/>
     </row>
-    <row r="517" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="517" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B517" s="4">
         <v>515</v>
       </c>
@@ -9492,7 +9604,7 @@
       <c r="H517" s="11"/>
       <c r="I517" s="4"/>
     </row>
-    <row r="518" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="518" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B518" s="4">
         <v>516</v>
       </c>
@@ -9503,7 +9615,7 @@
       <c r="H518" s="11"/>
       <c r="I518" s="4"/>
     </row>
-    <row r="519" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="519" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B519" s="4">
         <v>517</v>
       </c>
@@ -9514,7 +9626,7 @@
       <c r="H519" s="11"/>
       <c r="I519" s="4"/>
     </row>
-    <row r="520" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="520" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B520" s="4">
         <v>518</v>
       </c>
@@ -9525,7 +9637,7 @@
       <c r="H520" s="11"/>
       <c r="I520" s="4"/>
     </row>
-    <row r="521" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="521" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B521" s="4">
         <v>519</v>
       </c>
@@ -9536,7 +9648,7 @@
       <c r="H521" s="11"/>
       <c r="I521" s="4"/>
     </row>
-    <row r="522" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="522" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B522" s="4">
         <v>520</v>
       </c>
@@ -9547,7 +9659,7 @@
       <c r="H522" s="11"/>
       <c r="I522" s="4"/>
     </row>
-    <row r="523" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="523" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B523" s="4">
         <v>521</v>
       </c>
@@ -9558,7 +9670,7 @@
       <c r="H523" s="11"/>
       <c r="I523" s="4"/>
     </row>
-    <row r="524" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="524" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B524" s="4">
         <v>522</v>
       </c>
@@ -9569,7 +9681,7 @@
       <c r="H524" s="11"/>
       <c r="I524" s="4"/>
     </row>
-    <row r="525" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="525" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B525" s="4">
         <v>523</v>
       </c>
@@ -9580,7 +9692,7 @@
       <c r="H525" s="11"/>
       <c r="I525" s="4"/>
     </row>
-    <row r="526" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="526" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B526" s="4">
         <v>524</v>
       </c>
@@ -9591,7 +9703,7 @@
       <c r="H526" s="11"/>
       <c r="I526" s="4"/>
     </row>
-    <row r="527" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="527" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B527" s="4">
         <v>525</v>
       </c>
@@ -9602,7 +9714,7 @@
       <c r="H527" s="11"/>
       <c r="I527" s="4"/>
     </row>
-    <row r="528" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="528" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B528" s="4">
         <v>526</v>
       </c>
@@ -9613,7 +9725,7 @@
       <c r="H528" s="11"/>
       <c r="I528" s="4"/>
     </row>
-    <row r="529" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="529" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B529" s="4">
         <v>527</v>
       </c>
@@ -9624,7 +9736,7 @@
       <c r="H529" s="11"/>
       <c r="I529" s="4"/>
     </row>
-    <row r="530" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="530" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B530" s="4">
         <v>528</v>
       </c>
@@ -9635,7 +9747,7 @@
       <c r="H530" s="11"/>
       <c r="I530" s="4"/>
     </row>
-    <row r="531" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="531" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B531" s="4">
         <v>529</v>
       </c>
@@ -9646,7 +9758,7 @@
       <c r="H531" s="11"/>
       <c r="I531" s="4"/>
     </row>
-    <row r="532" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="532" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B532" s="4">
         <v>530</v>
       </c>
@@ -9657,7 +9769,7 @@
       <c r="H532" s="11"/>
       <c r="I532" s="4"/>
     </row>
-    <row r="533" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="533" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B533" s="4">
         <v>531</v>
       </c>
@@ -9668,7 +9780,7 @@
       <c r="H533" s="11"/>
       <c r="I533" s="4"/>
     </row>
-    <row r="534" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="534" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B534" s="4">
         <v>532</v>
       </c>
@@ -9679,7 +9791,7 @@
       <c r="H534" s="11"/>
       <c r="I534" s="4"/>
     </row>
-    <row r="535" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="535" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B535" s="4">
         <v>533</v>
       </c>
@@ -9690,7 +9802,7 @@
       <c r="H535" s="11"/>
       <c r="I535" s="4"/>
     </row>
-    <row r="536" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="536" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B536" s="4">
         <v>534</v>
       </c>
@@ -9701,7 +9813,7 @@
       <c r="H536" s="11"/>
       <c r="I536" s="4"/>
     </row>
-    <row r="537" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="537" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B537" s="4">
         <v>535</v>
       </c>
@@ -9712,7 +9824,7 @@
       <c r="H537" s="11"/>
       <c r="I537" s="4"/>
     </row>
-    <row r="538" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="538" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B538" s="4">
         <v>536</v>
       </c>
@@ -9723,7 +9835,7 @@
       <c r="H538" s="11"/>
       <c r="I538" s="4"/>
     </row>
-    <row r="539" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="539" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B539" s="4">
         <v>537</v>
       </c>
@@ -9734,7 +9846,7 @@
       <c r="H539" s="11"/>
       <c r="I539" s="4"/>
     </row>
-    <row r="540" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="540" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B540" s="4">
         <v>538</v>
       </c>
@@ -9745,7 +9857,7 @@
       <c r="H540" s="11"/>
       <c r="I540" s="4"/>
     </row>
-    <row r="541" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="541" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B541" s="4">
         <v>539</v>
       </c>
@@ -9756,7 +9868,7 @@
       <c r="H541" s="11"/>
       <c r="I541" s="4"/>
     </row>
-    <row r="542" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="542" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B542" s="4">
         <v>540</v>
       </c>
@@ -9767,7 +9879,7 @@
       <c r="H542" s="11"/>
       <c r="I542" s="4"/>
     </row>
-    <row r="543" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="543" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B543" s="4">
         <v>541</v>
       </c>
@@ -9778,7 +9890,7 @@
       <c r="H543" s="11"/>
       <c r="I543" s="4"/>
     </row>
-    <row r="544" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="544" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B544" s="4">
         <v>542</v>
       </c>
@@ -9789,7 +9901,7 @@
       <c r="H544" s="11"/>
       <c r="I544" s="4"/>
     </row>
-    <row r="545" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="545" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B545" s="4">
         <v>543</v>
       </c>
@@ -9800,7 +9912,7 @@
       <c r="H545" s="11"/>
       <c r="I545" s="4"/>
     </row>
-    <row r="546" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="546" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B546" s="4">
         <v>544</v>
       </c>
@@ -9811,7 +9923,7 @@
       <c r="H546" s="11"/>
       <c r="I546" s="4"/>
     </row>
-    <row r="547" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="547" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B547" s="4">
         <v>545</v>
       </c>
@@ -9822,7 +9934,7 @@
       <c r="H547" s="11"/>
       <c r="I547" s="4"/>
     </row>
-    <row r="548" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="548" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B548" s="4">
         <v>546</v>
       </c>
@@ -9833,7 +9945,7 @@
       <c r="H548" s="11"/>
       <c r="I548" s="4"/>
     </row>
-    <row r="549" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="549" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B549" s="4">
         <v>547</v>
       </c>
@@ -9844,7 +9956,7 @@
       <c r="H549" s="11"/>
       <c r="I549" s="4"/>
     </row>
-    <row r="550" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="550" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B550" s="4">
         <v>548</v>
       </c>
@@ -9855,7 +9967,7 @@
       <c r="H550" s="11"/>
       <c r="I550" s="4"/>
     </row>
-    <row r="551" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="551" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B551" s="4">
         <v>549</v>
       </c>
@@ -9866,7 +9978,7 @@
       <c r="H551" s="11"/>
       <c r="I551" s="4"/>
     </row>
-    <row r="552" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="552" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B552" s="4">
         <v>550</v>
       </c>
@@ -9877,7 +9989,7 @@
       <c r="H552" s="11"/>
       <c r="I552" s="4"/>
     </row>
-    <row r="553" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="553" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B553" s="4">
         <v>551</v>
       </c>
@@ -9888,7 +10000,7 @@
       <c r="H553" s="11"/>
       <c r="I553" s="4"/>
     </row>
-    <row r="554" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="554" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B554" s="4">
         <v>552</v>
       </c>
@@ -9899,7 +10011,7 @@
       <c r="H554" s="11"/>
       <c r="I554" s="4"/>
     </row>
-    <row r="555" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="555" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B555" s="4">
         <v>553</v>
       </c>
@@ -9910,7 +10022,7 @@
       <c r="H555" s="11"/>
       <c r="I555" s="4"/>
     </row>
-    <row r="556" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="556" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B556" s="4">
         <v>554</v>
       </c>
@@ -9921,7 +10033,7 @@
       <c r="H556" s="11"/>
       <c r="I556" s="4"/>
     </row>
-    <row r="557" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="557" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B557" s="4">
         <v>555</v>
       </c>
@@ -9932,7 +10044,7 @@
       <c r="H557" s="11"/>
       <c r="I557" s="4"/>
     </row>
-    <row r="558" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="558" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B558" s="4">
         <v>556</v>
       </c>
@@ -9943,7 +10055,7 @@
       <c r="H558" s="11"/>
       <c r="I558" s="4"/>
     </row>
-    <row r="559" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="559" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B559" s="4">
         <v>557</v>
       </c>
@@ -9954,7 +10066,7 @@
       <c r="H559" s="11"/>
       <c r="I559" s="4"/>
     </row>
-    <row r="560" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="560" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B560" s="4">
         <v>558</v>
       </c>
@@ -9965,7 +10077,7 @@
       <c r="H560" s="11"/>
       <c r="I560" s="4"/>
     </row>
-    <row r="561" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="561" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B561" s="4">
         <v>559</v>
       </c>
@@ -9976,7 +10088,7 @@
       <c r="H561" s="11"/>
       <c r="I561" s="4"/>
     </row>
-    <row r="562" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="562" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B562" s="4">
         <v>560</v>
       </c>
@@ -9987,7 +10099,7 @@
       <c r="H562" s="11"/>
       <c r="I562" s="4"/>
     </row>
-    <row r="563" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="563" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B563" s="4">
         <v>561</v>
       </c>
@@ -9998,7 +10110,7 @@
       <c r="H563" s="11"/>
       <c r="I563" s="4"/>
     </row>
-    <row r="564" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="564" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B564" s="4">
         <v>562</v>
       </c>
@@ -10009,7 +10121,7 @@
       <c r="H564" s="11"/>
       <c r="I564" s="4"/>
     </row>
-    <row r="565" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="565" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B565" s="4">
         <v>563</v>
       </c>
@@ -10020,7 +10132,7 @@
       <c r="H565" s="11"/>
       <c r="I565" s="4"/>
     </row>
-    <row r="566" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="566" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B566" s="4">
         <v>564</v>
       </c>
@@ -10031,7 +10143,7 @@
       <c r="H566" s="11"/>
       <c r="I566" s="4"/>
     </row>
-    <row r="567" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="567" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B567" s="4">
         <v>565</v>
       </c>
@@ -10042,7 +10154,7 @@
       <c r="H567" s="11"/>
       <c r="I567" s="4"/>
     </row>
-    <row r="568" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="568" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B568" s="4">
         <v>566</v>
       </c>
@@ -10053,7 +10165,7 @@
       <c r="H568" s="11"/>
       <c r="I568" s="4"/>
     </row>
-    <row r="569" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="569" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B569" s="4">
         <v>567</v>
       </c>
@@ -10064,7 +10176,7 @@
       <c r="H569" s="11"/>
       <c r="I569" s="4"/>
     </row>
-    <row r="570" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="570" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B570" s="4">
         <v>568</v>
       </c>
@@ -10075,7 +10187,7 @@
       <c r="H570" s="11"/>
       <c r="I570" s="4"/>
     </row>
-    <row r="571" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="571" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B571" s="4">
         <v>569</v>
       </c>
@@ -10086,7 +10198,7 @@
       <c r="H571" s="11"/>
       <c r="I571" s="4"/>
     </row>
-    <row r="572" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="572" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B572" s="4">
         <v>570</v>
       </c>
@@ -10097,7 +10209,7 @@
       <c r="H572" s="11"/>
       <c r="I572" s="4"/>
     </row>
-    <row r="573" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="573" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B573" s="4">
         <v>571</v>
       </c>
@@ -10108,7 +10220,7 @@
       <c r="H573" s="11"/>
       <c r="I573" s="4"/>
     </row>
-    <row r="574" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="574" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B574" s="4">
         <v>572</v>
       </c>
@@ -10119,7 +10231,7 @@
       <c r="H574" s="11"/>
       <c r="I574" s="4"/>
     </row>
-    <row r="575" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="575" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B575" s="4">
         <v>573</v>
       </c>
@@ -10130,7 +10242,7 @@
       <c r="H575" s="11"/>
       <c r="I575" s="4"/>
     </row>
-    <row r="576" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="576" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B576" s="4">
         <v>574</v>
       </c>
@@ -10141,7 +10253,7 @@
       <c r="H576" s="11"/>
       <c r="I576" s="4"/>
     </row>
-    <row r="577" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="577" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B577" s="4">
         <v>575</v>
       </c>
@@ -10152,7 +10264,7 @@
       <c r="H577" s="11"/>
       <c r="I577" s="4"/>
     </row>
-    <row r="578" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="578" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B578" s="4">
         <v>576</v>
       </c>
@@ -10163,7 +10275,7 @@
       <c r="H578" s="11"/>
       <c r="I578" s="4"/>
     </row>
-    <row r="579" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="579" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B579" s="4">
         <v>577</v>
       </c>
@@ -10174,7 +10286,7 @@
       <c r="H579" s="11"/>
       <c r="I579" s="4"/>
     </row>
-    <row r="580" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="580" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B580" s="4">
         <v>578</v>
       </c>
@@ -10185,7 +10297,7 @@
       <c r="H580" s="11"/>
       <c r="I580" s="4"/>
     </row>
-    <row r="581" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="581" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B581" s="4">
         <v>579</v>
       </c>
@@ -10196,7 +10308,7 @@
       <c r="H581" s="11"/>
       <c r="I581" s="4"/>
     </row>
-    <row r="582" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="582" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B582" s="4">
         <v>580</v>
       </c>
@@ -10207,7 +10319,7 @@
       <c r="H582" s="11"/>
       <c r="I582" s="4"/>
     </row>
-    <row r="583" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="583" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B583" s="4">
         <v>581</v>
       </c>
@@ -10218,7 +10330,7 @@
       <c r="H583" s="11"/>
       <c r="I583" s="4"/>
     </row>
-    <row r="584" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="584" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B584" s="4">
         <v>582</v>
       </c>
@@ -10229,7 +10341,7 @@
       <c r="H584" s="11"/>
       <c r="I584" s="4"/>
     </row>
-    <row r="585" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="585" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B585" s="4">
         <v>583</v>
       </c>
@@ -10240,7 +10352,7 @@
       <c r="H585" s="11"/>
       <c r="I585" s="4"/>
     </row>
-    <row r="586" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="586" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B586" s="4">
         <v>584</v>
       </c>
@@ -10251,7 +10363,7 @@
       <c r="H586" s="11"/>
       <c r="I586" s="4"/>
     </row>
-    <row r="587" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="587" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B587" s="4">
         <v>585</v>
       </c>
@@ -10262,7 +10374,7 @@
       <c r="H587" s="11"/>
       <c r="I587" s="4"/>
     </row>
-    <row r="588" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="588" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B588" s="4">
         <v>586</v>
       </c>
@@ -10273,7 +10385,7 @@
       <c r="H588" s="11"/>
       <c r="I588" s="4"/>
     </row>
-    <row r="589" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="589" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B589" s="4">
         <v>587</v>
       </c>
@@ -10284,7 +10396,7 @@
       <c r="H589" s="11"/>
       <c r="I589" s="4"/>
     </row>
-    <row r="590" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="590" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B590" s="4">
         <v>588</v>
       </c>
@@ -10295,7 +10407,7 @@
       <c r="H590" s="11"/>
       <c r="I590" s="4"/>
     </row>
-    <row r="591" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="591" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B591" s="4">
         <v>589</v>
       </c>
@@ -10306,7 +10418,7 @@
       <c r="H591" s="11"/>
       <c r="I591" s="4"/>
     </row>
-    <row r="592" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="592" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B592" s="4">
         <v>590</v>
       </c>
@@ -10317,7 +10429,7 @@
       <c r="H592" s="11"/>
       <c r="I592" s="4"/>
     </row>
-    <row r="593" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="593" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B593" s="4">
         <v>591</v>
       </c>
@@ -10328,7 +10440,7 @@
       <c r="H593" s="11"/>
       <c r="I593" s="4"/>
     </row>
-    <row r="594" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="594" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B594" s="4">
         <v>592</v>
       </c>
@@ -10339,7 +10451,7 @@
       <c r="H594" s="11"/>
       <c r="I594" s="4"/>
     </row>
-    <row r="595" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="595" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B595" s="4">
         <v>593</v>
       </c>
@@ -10350,7 +10462,7 @@
       <c r="H595" s="11"/>
       <c r="I595" s="4"/>
     </row>
-    <row r="596" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="596" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B596" s="4">
         <v>594</v>
       </c>
@@ -10361,7 +10473,7 @@
       <c r="H596" s="11"/>
       <c r="I596" s="4"/>
     </row>
-    <row r="597" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="597" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B597" s="4">
         <v>595</v>
       </c>
@@ -10372,7 +10484,7 @@
       <c r="H597" s="11"/>
       <c r="I597" s="4"/>
     </row>
-    <row r="598" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="598" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B598" s="4">
         <v>596</v>
       </c>
@@ -10383,7 +10495,7 @@
       <c r="H598" s="11"/>
       <c r="I598" s="4"/>
     </row>
-    <row r="599" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="599" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B599" s="4">
         <v>597</v>
       </c>
@@ -10394,7 +10506,7 @@
       <c r="H599" s="11"/>
       <c r="I599" s="4"/>
     </row>
-    <row r="600" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="600" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B600" s="4">
         <v>598</v>
       </c>
@@ -10405,7 +10517,7 @@
       <c r="H600" s="11"/>
       <c r="I600" s="4"/>
     </row>
-    <row r="601" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="601" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B601" s="4">
         <v>599</v>
       </c>
@@ -10416,7 +10528,7 @@
       <c r="H601" s="11"/>
       <c r="I601" s="4"/>
     </row>
-    <row r="602" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="602" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B602" s="4">
         <v>600</v>
       </c>
@@ -10427,7 +10539,7 @@
       <c r="H602" s="11"/>
       <c r="I602" s="4"/>
     </row>
-    <row r="603" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="603" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B603" s="4">
         <v>601</v>
       </c>
@@ -10438,7 +10550,7 @@
       <c r="H603" s="11"/>
       <c r="I603" s="4"/>
     </row>
-    <row r="604" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="604" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B604" s="4">
         <v>602</v>
       </c>
@@ -10449,7 +10561,7 @@
       <c r="H604" s="11"/>
       <c r="I604" s="4"/>
     </row>
-    <row r="605" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="605" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B605" s="4">
         <v>603</v>
       </c>
@@ -10460,7 +10572,7 @@
       <c r="H605" s="11"/>
       <c r="I605" s="4"/>
     </row>
-    <row r="606" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="606" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B606" s="4">
         <v>604</v>
       </c>
@@ -10471,7 +10583,7 @@
       <c r="H606" s="11"/>
       <c r="I606" s="4"/>
     </row>
-    <row r="607" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="607" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B607" s="4">
         <v>605</v>
       </c>
@@ -10482,7 +10594,7 @@
       <c r="H607" s="11"/>
       <c r="I607" s="4"/>
     </row>
-    <row r="608" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="608" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B608" s="4">
         <v>606</v>
       </c>
@@ -10493,7 +10605,7 @@
       <c r="H608" s="11"/>
       <c r="I608" s="4"/>
     </row>
-    <row r="609" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="609" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B609" s="4">
         <v>607</v>
       </c>
@@ -10504,7 +10616,7 @@
       <c r="H609" s="11"/>
       <c r="I609" s="4"/>
     </row>
-    <row r="610" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="610" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B610" s="4">
         <v>608</v>
       </c>
@@ -10515,7 +10627,7 @@
       <c r="H610" s="11"/>
       <c r="I610" s="4"/>
     </row>
-    <row r="611" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="611" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B611" s="4">
         <v>609</v>
       </c>
@@ -10526,7 +10638,7 @@
       <c r="H611" s="11"/>
       <c r="I611" s="4"/>
     </row>
-    <row r="612" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="612" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B612" s="4">
         <v>610</v>
       </c>
@@ -10537,7 +10649,7 @@
       <c r="H612" s="11"/>
       <c r="I612" s="4"/>
     </row>
-    <row r="613" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="613" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B613" s="4">
         <v>611</v>
       </c>
@@ -10548,7 +10660,7 @@
       <c r="H613" s="11"/>
       <c r="I613" s="4"/>
     </row>
-    <row r="614" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="614" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B614" s="4">
         <v>612</v>
       </c>
@@ -10559,7 +10671,7 @@
       <c r="H614" s="11"/>
       <c r="I614" s="4"/>
     </row>
-    <row r="615" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="615" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B615" s="4">
         <v>613</v>
       </c>
@@ -10570,7 +10682,7 @@
       <c r="H615" s="11"/>
       <c r="I615" s="4"/>
     </row>
-    <row r="616" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="616" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B616" s="4">
         <v>614</v>
       </c>
@@ -10581,7 +10693,7 @@
       <c r="H616" s="11"/>
       <c r="I616" s="4"/>
     </row>
-    <row r="617" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="617" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B617" s="4">
         <v>615</v>
       </c>
@@ -10592,7 +10704,7 @@
       <c r="H617" s="11"/>
       <c r="I617" s="4"/>
     </row>
-    <row r="618" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="618" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B618" s="4">
         <v>616</v>
       </c>
@@ -10603,7 +10715,7 @@
       <c r="H618" s="11"/>
       <c r="I618" s="4"/>
     </row>
-    <row r="619" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="619" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B619" s="4">
         <v>617</v>
       </c>
@@ -10614,7 +10726,7 @@
       <c r="H619" s="11"/>
       <c r="I619" s="4"/>
     </row>
-    <row r="620" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="620" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B620" s="4">
         <v>618</v>
       </c>
@@ -10625,7 +10737,7 @@
       <c r="H620" s="11"/>
       <c r="I620" s="4"/>
     </row>
-    <row r="621" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="621" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B621" s="4">
         <v>619</v>
       </c>
@@ -10636,7 +10748,7 @@
       <c r="H621" s="11"/>
       <c r="I621" s="4"/>
     </row>
-    <row r="622" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="622" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B622" s="4">
         <v>620</v>
       </c>
@@ -10647,7 +10759,7 @@
       <c r="H622" s="11"/>
       <c r="I622" s="4"/>
     </row>
-    <row r="623" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="623" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B623" s="4">
         <v>621</v>
       </c>
@@ -10658,7 +10770,7 @@
       <c r="H623" s="11"/>
       <c r="I623" s="4"/>
     </row>
-    <row r="624" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="624" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B624" s="4">
         <v>622</v>
       </c>
@@ -10669,7 +10781,7 @@
       <c r="H624" s="11"/>
       <c r="I624" s="4"/>
     </row>
-    <row r="625" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="625" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B625" s="4">
         <v>623</v>
       </c>
@@ -10680,7 +10792,7 @@
       <c r="H625" s="11"/>
       <c r="I625" s="4"/>
     </row>
-    <row r="626" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="626" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B626" s="4">
         <v>624</v>
       </c>
@@ -10691,7 +10803,7 @@
       <c r="H626" s="11"/>
       <c r="I626" s="4"/>
     </row>
-    <row r="627" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="627" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B627" s="4">
         <v>625</v>
       </c>
@@ -10702,7 +10814,7 @@
       <c r="H627" s="11"/>
       <c r="I627" s="4"/>
     </row>
-    <row r="628" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="628" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B628" s="4">
         <v>626</v>
       </c>
@@ -10713,7 +10825,7 @@
       <c r="H628" s="11"/>
       <c r="I628" s="4"/>
     </row>
-    <row r="629" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="629" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B629" s="4">
         <v>627</v>
       </c>
@@ -10724,7 +10836,7 @@
       <c r="H629" s="11"/>
       <c r="I629" s="4"/>
     </row>
-    <row r="630" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="630" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B630" s="4">
         <v>628</v>
       </c>
@@ -10735,7 +10847,7 @@
       <c r="H630" s="11"/>
       <c r="I630" s="4"/>
     </row>
-    <row r="631" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="631" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B631" s="4">
         <v>629</v>
       </c>
@@ -10746,7 +10858,7 @@
       <c r="H631" s="11"/>
       <c r="I631" s="4"/>
     </row>
-    <row r="632" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="632" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B632" s="4">
         <v>630</v>
       </c>
@@ -10757,7 +10869,7 @@
       <c r="H632" s="11"/>
       <c r="I632" s="4"/>
     </row>
-    <row r="633" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="633" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B633" s="4">
         <v>631</v>
       </c>
@@ -10768,7 +10880,7 @@
       <c r="H633" s="11"/>
       <c r="I633" s="4"/>
     </row>
-    <row r="634" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="634" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B634" s="4">
         <v>632</v>
       </c>
@@ -10779,7 +10891,7 @@
       <c r="H634" s="11"/>
       <c r="I634" s="4"/>
     </row>
-    <row r="635" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="635" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B635" s="4">
         <v>633</v>
       </c>
@@ -10790,7 +10902,7 @@
       <c r="H635" s="11"/>
       <c r="I635" s="4"/>
     </row>
-    <row r="636" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="636" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B636" s="4">
         <v>634</v>
       </c>
@@ -10801,7 +10913,7 @@
       <c r="H636" s="11"/>
       <c r="I636" s="4"/>
     </row>
-    <row r="637" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="637" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B637" s="4">
         <v>635</v>
       </c>
@@ -10812,7 +10924,7 @@
       <c r="H637" s="11"/>
       <c r="I637" s="4"/>
     </row>
-    <row r="638" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="638" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B638" s="4">
         <v>636</v>
       </c>
@@ -10823,7 +10935,7 @@
       <c r="H638" s="11"/>
       <c r="I638" s="4"/>
     </row>
-    <row r="639" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="639" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B639" s="4">
         <v>637</v>
       </c>
@@ -10834,7 +10946,7 @@
       <c r="H639" s="11"/>
       <c r="I639" s="4"/>
     </row>
-    <row r="640" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="640" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B640" s="4">
         <v>638</v>
       </c>
@@ -10845,7 +10957,7 @@
       <c r="H640" s="11"/>
       <c r="I640" s="4"/>
     </row>
-    <row r="641" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="641" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B641" s="4">
         <v>639</v>
       </c>
@@ -10856,7 +10968,7 @@
       <c r="H641" s="11"/>
       <c r="I641" s="4"/>
     </row>
-    <row r="642" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="642" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B642" s="4">
         <v>640</v>
       </c>
@@ -10867,7 +10979,7 @@
       <c r="H642" s="11"/>
       <c r="I642" s="4"/>
     </row>
-    <row r="643" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="643" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B643" s="4">
         <v>641</v>
       </c>
@@ -10878,7 +10990,7 @@
       <c r="H643" s="11"/>
       <c r="I643" s="4"/>
     </row>
-    <row r="644" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="644" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B644" s="4">
         <v>642</v>
       </c>
@@ -10889,7 +11001,7 @@
       <c r="H644" s="11"/>
       <c r="I644" s="4"/>
     </row>
-    <row r="645" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="645" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B645" s="4">
         <v>643</v>
       </c>
@@ -10900,7 +11012,7 @@
       <c r="H645" s="11"/>
       <c r="I645" s="4"/>
     </row>
-    <row r="646" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="646" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B646" s="4">
         <v>644</v>
       </c>
@@ -10911,7 +11023,7 @@
       <c r="H646" s="11"/>
       <c r="I646" s="4"/>
     </row>
-    <row r="647" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="647" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B647" s="4">
         <v>645</v>
       </c>
@@ -10922,7 +11034,7 @@
       <c r="H647" s="11"/>
       <c r="I647" s="4"/>
     </row>
-    <row r="648" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="648" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B648" s="4">
         <v>646</v>
       </c>
@@ -10933,7 +11045,7 @@
       <c r="H648" s="11"/>
       <c r="I648" s="4"/>
     </row>
-    <row r="649" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="649" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B649" s="4">
         <v>647</v>
       </c>
@@ -10944,7 +11056,7 @@
       <c r="H649" s="11"/>
       <c r="I649" s="4"/>
     </row>
-    <row r="650" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="650" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B650" s="4">
         <v>648</v>
       </c>
@@ -10955,7 +11067,7 @@
       <c r="H650" s="11"/>
       <c r="I650" s="4"/>
     </row>
-    <row r="651" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="651" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B651" s="4">
         <v>649</v>
       </c>
@@ -10966,7 +11078,7 @@
       <c r="H651" s="11"/>
       <c r="I651" s="4"/>
     </row>
-    <row r="652" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="652" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B652" s="4">
         <v>650</v>
       </c>
@@ -10977,7 +11089,7 @@
       <c r="H652" s="11"/>
       <c r="I652" s="4"/>
     </row>
-    <row r="653" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="653" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B653" s="4">
         <v>651</v>
       </c>
@@ -10988,7 +11100,7 @@
       <c r="H653" s="11"/>
       <c r="I653" s="4"/>
     </row>
-    <row r="654" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="654" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B654" s="4">
         <v>652</v>
       </c>
@@ -10999,7 +11111,7 @@
       <c r="H654" s="11"/>
       <c r="I654" s="4"/>
     </row>
-    <row r="655" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="655" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B655" s="4">
         <v>653</v>
       </c>
@@ -11010,7 +11122,7 @@
       <c r="H655" s="11"/>
       <c r="I655" s="4"/>
     </row>
-    <row r="656" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="656" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B656" s="4">
         <v>654</v>
       </c>
@@ -11021,7 +11133,7 @@
       <c r="H656" s="11"/>
       <c r="I656" s="4"/>
     </row>
-    <row r="657" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="657" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B657" s="4">
         <v>655</v>
       </c>
@@ -11032,7 +11144,7 @@
       <c r="H657" s="11"/>
       <c r="I657" s="4"/>
     </row>
-    <row r="658" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="658" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B658" s="4">
         <v>656</v>
       </c>
@@ -11043,7 +11155,7 @@
       <c r="H658" s="11"/>
       <c r="I658" s="4"/>
     </row>
-    <row r="659" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="659" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B659" s="4">
         <v>657</v>
       </c>
@@ -11054,7 +11166,7 @@
       <c r="H659" s="11"/>
       <c r="I659" s="4"/>
     </row>
-    <row r="660" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="660" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B660" s="4">
         <v>658</v>
       </c>
@@ -11065,7 +11177,7 @@
       <c r="H660" s="11"/>
       <c r="I660" s="4"/>
     </row>
-    <row r="661" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="661" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B661" s="4">
         <v>659</v>
       </c>
@@ -11076,7 +11188,7 @@
       <c r="H661" s="11"/>
       <c r="I661" s="4"/>
     </row>
-    <row r="662" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="662" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B662" s="4">
         <v>660</v>
       </c>
@@ -11087,7 +11199,7 @@
       <c r="H662" s="11"/>
       <c r="I662" s="4"/>
     </row>
-    <row r="663" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="663" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B663" s="4">
         <v>661</v>
       </c>
@@ -11098,7 +11210,7 @@
       <c r="H663" s="11"/>
       <c r="I663" s="4"/>
     </row>
-    <row r="664" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="664" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B664" s="4">
         <v>662</v>
       </c>
@@ -11109,7 +11221,7 @@
       <c r="H664" s="11"/>
       <c r="I664" s="4"/>
     </row>
-    <row r="665" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="665" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B665" s="4">
         <v>663</v>
       </c>
@@ -11120,7 +11232,7 @@
       <c r="H665" s="11"/>
       <c r="I665" s="4"/>
     </row>
-    <row r="666" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="666" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B666" s="4">
         <v>664</v>
       </c>
@@ -11131,7 +11243,7 @@
       <c r="H666" s="11"/>
       <c r="I666" s="4"/>
     </row>
-    <row r="667" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="667" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B667" s="4">
         <v>665</v>
       </c>
@@ -11142,7 +11254,7 @@
       <c r="H667" s="11"/>
       <c r="I667" s="4"/>
     </row>
-    <row r="668" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="668" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B668" s="4">
         <v>666</v>
       </c>
@@ -11153,7 +11265,7 @@
       <c r="H668" s="11"/>
       <c r="I668" s="4"/>
     </row>
-    <row r="669" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="669" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B669" s="4">
         <v>667</v>
       </c>
@@ -11164,7 +11276,7 @@
       <c r="H669" s="11"/>
       <c r="I669" s="4"/>
     </row>
-    <row r="670" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="670" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B670" s="4">
         <v>668</v>
       </c>
@@ -11175,7 +11287,7 @@
       <c r="H670" s="11"/>
       <c r="I670" s="4"/>
     </row>
-    <row r="671" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="671" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B671" s="4">
         <v>669</v>
       </c>
@@ -11186,7 +11298,7 @@
       <c r="H671" s="11"/>
       <c r="I671" s="4"/>
     </row>
-    <row r="672" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="672" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B672" s="4">
         <v>670</v>
       </c>
@@ -11197,7 +11309,7 @@
       <c r="H672" s="11"/>
       <c r="I672" s="4"/>
     </row>
-    <row r="673" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="673" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B673" s="4">
         <v>671</v>
       </c>
@@ -11208,7 +11320,7 @@
       <c r="H673" s="11"/>
       <c r="I673" s="4"/>
     </row>
-    <row r="674" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="674" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B674" s="4">
         <v>672</v>
       </c>
@@ -11219,7 +11331,7 @@
       <c r="H674" s="11"/>
       <c r="I674" s="4"/>
     </row>
-    <row r="675" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="675" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B675" s="4">
         <v>673</v>
       </c>
@@ -11230,7 +11342,7 @@
       <c r="H675" s="11"/>
       <c r="I675" s="4"/>
     </row>
-    <row r="676" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="676" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B676" s="4">
         <v>674</v>
       </c>
@@ -11241,7 +11353,7 @@
       <c r="H676" s="11"/>
       <c r="I676" s="4"/>
     </row>
-    <row r="677" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="677" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B677" s="4">
         <v>675</v>
       </c>
@@ -11252,7 +11364,7 @@
       <c r="H677" s="11"/>
       <c r="I677" s="4"/>
     </row>
-    <row r="678" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="678" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B678" s="4">
         <v>676</v>
       </c>
@@ -11263,7 +11375,7 @@
       <c r="H678" s="11"/>
       <c r="I678" s="4"/>
     </row>
-    <row r="679" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="679" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B679" s="4">
         <v>677</v>
       </c>
@@ -11274,7 +11386,7 @@
       <c r="H679" s="11"/>
       <c r="I679" s="4"/>
     </row>
-    <row r="680" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="680" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B680" s="4">
         <v>678</v>
       </c>
@@ -11285,7 +11397,7 @@
       <c r="H680" s="11"/>
       <c r="I680" s="4"/>
     </row>
-    <row r="681" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="681" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B681" s="4">
         <v>679</v>
       </c>
@@ -11296,7 +11408,7 @@
       <c r="H681" s="11"/>
       <c r="I681" s="4"/>
     </row>
-    <row r="682" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="682" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B682" s="4">
         <v>680</v>
       </c>
@@ -11307,7 +11419,7 @@
       <c r="H682" s="11"/>
       <c r="I682" s="4"/>
     </row>
-    <row r="683" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="683" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B683" s="4">
         <v>681</v>
       </c>
@@ -11318,7 +11430,7 @@
       <c r="H683" s="11"/>
       <c r="I683" s="4"/>
     </row>
-    <row r="684" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="684" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B684" s="4">
         <v>682</v>
       </c>
@@ -11329,7 +11441,7 @@
       <c r="H684" s="11"/>
       <c r="I684" s="4"/>
     </row>
-    <row r="685" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="685" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B685" s="4">
         <v>683</v>
       </c>
@@ -11340,7 +11452,7 @@
       <c r="H685" s="11"/>
       <c r="I685" s="4"/>
     </row>
-    <row r="686" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="686" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B686" s="4">
         <v>684</v>
       </c>
@@ -11351,7 +11463,7 @@
       <c r="H686" s="11"/>
       <c r="I686" s="4"/>
     </row>
-    <row r="687" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="687" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B687" s="4">
         <v>685</v>
       </c>
@@ -11362,7 +11474,7 @@
       <c r="H687" s="11"/>
       <c r="I687" s="4"/>
     </row>
-    <row r="688" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="688" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B688" s="4">
         <v>686</v>
       </c>
@@ -11373,7 +11485,7 @@
       <c r="H688" s="11"/>
       <c r="I688" s="4"/>
     </row>
-    <row r="689" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="689" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B689" s="4">
         <v>687</v>
       </c>
@@ -11384,7 +11496,7 @@
       <c r="H689" s="11"/>
       <c r="I689" s="4"/>
     </row>
-    <row r="690" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="690" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B690" s="4">
         <v>688</v>
       </c>
@@ -11395,7 +11507,7 @@
       <c r="H690" s="11"/>
       <c r="I690" s="4"/>
     </row>
-    <row r="691" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="691" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B691" s="4">
         <v>689</v>
       </c>
@@ -11406,7 +11518,7 @@
       <c r="H691" s="11"/>
       <c r="I691" s="4"/>
     </row>
-    <row r="692" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="692" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B692" s="4">
         <v>690</v>
       </c>
@@ -11417,7 +11529,7 @@
       <c r="H692" s="11"/>
       <c r="I692" s="4"/>
     </row>
-    <row r="693" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="693" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B693" s="4">
         <v>691</v>
       </c>
@@ -11428,7 +11540,7 @@
       <c r="H693" s="11"/>
       <c r="I693" s="4"/>
     </row>
-    <row r="694" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="694" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B694" s="4">
         <v>692</v>
       </c>
@@ -11439,7 +11551,7 @@
       <c r="H694" s="11"/>
       <c r="I694" s="4"/>
     </row>
-    <row r="695" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="695" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B695" s="4">
         <v>693</v>
       </c>
@@ -11450,7 +11562,7 @@
       <c r="H695" s="11"/>
       <c r="I695" s="4"/>
     </row>
-    <row r="696" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="696" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B696" s="4">
         <v>694</v>
       </c>
@@ -11461,7 +11573,7 @@
       <c r="H696" s="11"/>
       <c r="I696" s="4"/>
     </row>
-    <row r="697" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="697" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B697" s="4">
         <v>695</v>
       </c>
@@ -11472,7 +11584,7 @@
       <c r="H697" s="11"/>
       <c r="I697" s="4"/>
     </row>
-    <row r="698" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="698" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B698" s="4">
         <v>696</v>
       </c>
@@ -11483,7 +11595,7 @@
       <c r="H698" s="11"/>
       <c r="I698" s="4"/>
     </row>
-    <row r="699" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="699" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B699" s="4">
         <v>697</v>
       </c>
@@ -11494,7 +11606,7 @@
       <c r="H699" s="11"/>
       <c r="I699" s="4"/>
     </row>
-    <row r="700" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="700" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B700" s="4">
         <v>698</v>
       </c>
@@ -11505,7 +11617,7 @@
       <c r="H700" s="11"/>
       <c r="I700" s="4"/>
     </row>
-    <row r="701" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="701" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B701" s="4">
         <v>699</v>
       </c>
@@ -11516,7 +11628,7 @@
       <c r="H701" s="11"/>
       <c r="I701" s="4"/>
     </row>
-    <row r="702" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="702" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B702" s="4">
         <v>700</v>
       </c>
@@ -11527,7 +11639,7 @@
       <c r="H702" s="11"/>
       <c r="I702" s="4"/>
     </row>
-    <row r="703" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="703" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B703" s="4">
         <v>701</v>
       </c>
@@ -11538,7 +11650,7 @@
       <c r="H703" s="11"/>
       <c r="I703" s="4"/>
     </row>
-    <row r="704" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="704" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B704" s="4">
         <v>702</v>
       </c>
@@ -11549,7 +11661,7 @@
       <c r="H704" s="11"/>
       <c r="I704" s="4"/>
     </row>
-    <row r="705" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="705" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B705" s="4">
         <v>703</v>
       </c>
@@ -11560,7 +11672,7 @@
       <c r="H705" s="11"/>
       <c r="I705" s="4"/>
     </row>
-    <row r="706" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="706" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B706" s="4">
         <v>704</v>
       </c>
@@ -11571,7 +11683,7 @@
       <c r="H706" s="11"/>
       <c r="I706" s="4"/>
     </row>
-    <row r="707" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="707" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B707" s="4">
         <v>705</v>
       </c>
@@ -11582,7 +11694,7 @@
       <c r="H707" s="11"/>
       <c r="I707" s="4"/>
     </row>
-    <row r="708" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="708" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B708" s="4">
         <v>706</v>
       </c>
@@ -11593,7 +11705,7 @@
       <c r="H708" s="11"/>
       <c r="I708" s="4"/>
     </row>
-    <row r="709" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="709" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B709" s="4">
         <v>707</v>
       </c>
@@ -11604,7 +11716,7 @@
       <c r="H709" s="11"/>
       <c r="I709" s="4"/>
     </row>
-    <row r="710" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="710" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B710" s="4">
         <v>708</v>
       </c>
@@ -11615,7 +11727,7 @@
       <c r="H710" s="11"/>
       <c r="I710" s="4"/>
     </row>
-    <row r="711" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="711" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B711" s="4">
         <v>709</v>
       </c>
@@ -11626,7 +11738,7 @@
       <c r="H711" s="11"/>
       <c r="I711" s="4"/>
     </row>
-    <row r="712" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="712" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B712" s="4">
         <v>710</v>
       </c>
@@ -11637,7 +11749,7 @@
       <c r="H712" s="11"/>
       <c r="I712" s="4"/>
     </row>
-    <row r="713" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="713" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B713" s="4">
         <v>711</v>
       </c>
@@ -11648,7 +11760,7 @@
       <c r="H713" s="11"/>
       <c r="I713" s="4"/>
     </row>
-    <row r="714" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="714" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B714" s="4">
         <v>712</v>
       </c>
@@ -11659,7 +11771,7 @@
       <c r="H714" s="11"/>
       <c r="I714" s="4"/>
     </row>
-    <row r="715" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="715" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B715" s="4">
         <v>713</v>
       </c>
@@ -11670,7 +11782,7 @@
       <c r="H715" s="11"/>
       <c r="I715" s="4"/>
     </row>
-    <row r="716" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="716" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B716" s="4">
         <v>714</v>
       </c>
@@ -11681,7 +11793,7 @@
       <c r="H716" s="11"/>
       <c r="I716" s="4"/>
     </row>
-    <row r="717" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="717" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B717" s="4">
         <v>715</v>
       </c>
@@ -11692,7 +11804,7 @@
       <c r="H717" s="11"/>
       <c r="I717" s="4"/>
     </row>
-    <row r="718" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="718" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B718" s="4">
         <v>716</v>
       </c>
@@ -11703,7 +11815,7 @@
       <c r="H718" s="11"/>
       <c r="I718" s="4"/>
     </row>
-    <row r="719" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="719" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B719" s="4">
         <v>717</v>
       </c>
@@ -11714,7 +11826,7 @@
       <c r="H719" s="11"/>
       <c r="I719" s="4"/>
     </row>
-    <row r="720" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="720" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B720" s="4">
         <v>718</v>
       </c>
@@ -11725,7 +11837,7 @@
       <c r="H720" s="11"/>
       <c r="I720" s="4"/>
     </row>
-    <row r="721" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="721" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B721" s="4">
         <v>719</v>
       </c>
@@ -11736,7 +11848,7 @@
       <c r="H721" s="11"/>
       <c r="I721" s="4"/>
     </row>
-    <row r="722" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="722" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B722" s="4">
         <v>720</v>
       </c>
@@ -11747,7 +11859,7 @@
       <c r="H722" s="11"/>
       <c r="I722" s="4"/>
     </row>
-    <row r="723" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="723" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B723" s="4">
         <v>721</v>
       </c>
@@ -11758,7 +11870,7 @@
       <c r="H723" s="11"/>
       <c r="I723" s="4"/>
     </row>
-    <row r="724" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="724" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B724" s="4">
         <v>722</v>
       </c>
@@ -11769,7 +11881,7 @@
       <c r="H724" s="11"/>
       <c r="I724" s="4"/>
     </row>
-    <row r="725" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="725" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B725" s="4">
         <v>723</v>
       </c>
@@ -11780,7 +11892,7 @@
       <c r="H725" s="11"/>
       <c r="I725" s="4"/>
     </row>
-    <row r="726" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="726" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B726" s="4">
         <v>724</v>
       </c>
@@ -11791,7 +11903,7 @@
       <c r="H726" s="11"/>
       <c r="I726" s="4"/>
     </row>
-    <row r="727" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="727" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B727" s="4">
         <v>725</v>
       </c>
@@ -11802,7 +11914,7 @@
       <c r="H727" s="11"/>
       <c r="I727" s="4"/>
     </row>
-    <row r="728" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="728" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B728" s="4">
         <v>726</v>
       </c>
@@ -11813,7 +11925,7 @@
       <c r="H728" s="11"/>
       <c r="I728" s="4"/>
     </row>
-    <row r="729" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="729" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B729" s="4">
         <v>727</v>
       </c>
@@ -11824,7 +11936,7 @@
       <c r="H729" s="11"/>
       <c r="I729" s="4"/>
     </row>
-    <row r="730" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="730" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B730" s="4">
         <v>728</v>
       </c>
@@ -11835,7 +11947,7 @@
       <c r="H730" s="11"/>
       <c r="I730" s="4"/>
     </row>
-    <row r="731" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="731" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B731" s="4">
         <v>729</v>
       </c>
@@ -11846,7 +11958,7 @@
       <c r="H731" s="11"/>
       <c r="I731" s="4"/>
     </row>
-    <row r="732" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="732" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B732" s="4">
         <v>730</v>
       </c>
@@ -11857,7 +11969,7 @@
       <c r="H732" s="11"/>
       <c r="I732" s="4"/>
     </row>
-    <row r="733" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="733" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B733" s="4">
         <v>731</v>
       </c>
@@ -11868,7 +11980,7 @@
       <c r="H733" s="11"/>
       <c r="I733" s="4"/>
     </row>
-    <row r="734" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="734" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B734" s="4">
         <v>732</v>
       </c>
@@ -11879,7 +11991,7 @@
       <c r="H734" s="11"/>
       <c r="I734" s="4"/>
     </row>
-    <row r="735" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="735" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B735" s="4">
         <v>733</v>
       </c>
@@ -11890,7 +12002,7 @@
       <c r="H735" s="11"/>
       <c r="I735" s="4"/>
     </row>
-    <row r="736" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="736" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B736" s="4">
         <v>734</v>
       </c>
@@ -11901,7 +12013,7 @@
       <c r="H736" s="11"/>
       <c r="I736" s="4"/>
     </row>
-    <row r="737" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="737" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B737" s="4">
         <v>735</v>
       </c>
@@ -11912,7 +12024,7 @@
       <c r="H737" s="11"/>
       <c r="I737" s="4"/>
     </row>
-    <row r="738" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="738" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B738" s="4">
         <v>736</v>
       </c>
@@ -11923,7 +12035,7 @@
       <c r="H738" s="11"/>
       <c r="I738" s="4"/>
     </row>
-    <row r="739" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="739" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B739" s="4">
         <v>737</v>
       </c>
@@ -11934,7 +12046,7 @@
       <c r="H739" s="11"/>
       <c r="I739" s="4"/>
     </row>
-    <row r="740" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="740" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B740" s="4">
         <v>738</v>
       </c>
@@ -11945,7 +12057,7 @@
       <c r="H740" s="11"/>
       <c r="I740" s="4"/>
     </row>
-    <row r="741" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="741" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B741" s="4">
         <v>739</v>
       </c>
@@ -11956,7 +12068,7 @@
       <c r="H741" s="11"/>
       <c r="I741" s="4"/>
     </row>
-    <row r="742" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="742" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B742" s="4">
         <v>740</v>
       </c>
@@ -11967,7 +12079,7 @@
       <c r="H742" s="11"/>
       <c r="I742" s="4"/>
     </row>
-    <row r="743" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="743" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B743" s="4">
         <v>741</v>
       </c>
@@ -11978,7 +12090,7 @@
       <c r="H743" s="11"/>
       <c r="I743" s="4"/>
     </row>
-    <row r="744" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="744" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B744" s="4">
         <v>742</v>
       </c>
@@ -11989,7 +12101,7 @@
       <c r="H744" s="11"/>
       <c r="I744" s="4"/>
     </row>
-    <row r="745" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="745" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B745" s="4">
         <v>743</v>
       </c>
@@ -12000,7 +12112,7 @@
       <c r="H745" s="11"/>
       <c r="I745" s="4"/>
     </row>
-    <row r="746" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="746" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B746" s="4">
         <v>744</v>
       </c>
@@ -12011,7 +12123,7 @@
       <c r="H746" s="11"/>
       <c r="I746" s="4"/>
     </row>
-    <row r="747" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="747" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B747" s="4">
         <v>745</v>
       </c>
@@ -12022,7 +12134,7 @@
       <c r="H747" s="11"/>
       <c r="I747" s="4"/>
     </row>
-    <row r="748" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="748" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B748" s="4">
         <v>746</v>
       </c>
@@ -12033,7 +12145,7 @@
       <c r="H748" s="11"/>
       <c r="I748" s="4"/>
     </row>
-    <row r="749" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="749" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B749" s="4">
         <v>747</v>
       </c>
@@ -12044,7 +12156,7 @@
       <c r="H749" s="11"/>
       <c r="I749" s="4"/>
     </row>
-    <row r="750" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="750" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B750" s="4">
         <v>748</v>
       </c>
@@ -12055,7 +12167,7 @@
       <c r="H750" s="11"/>
       <c r="I750" s="4"/>
     </row>
-    <row r="751" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="751" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B751" s="4">
         <v>749</v>
       </c>
@@ -12066,7 +12178,7 @@
       <c r="H751" s="11"/>
       <c r="I751" s="4"/>
     </row>
-    <row r="752" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="752" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B752" s="4">
         <v>750</v>
       </c>
@@ -12077,7 +12189,7 @@
       <c r="H752" s="11"/>
       <c r="I752" s="4"/>
     </row>
-    <row r="753" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="753" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B753" s="4">
         <v>751</v>
       </c>
@@ -12088,7 +12200,7 @@
       <c r="H753" s="11"/>
       <c r="I753" s="4"/>
     </row>
-    <row r="754" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="754" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B754" s="4">
         <v>752</v>
       </c>
@@ -12099,7 +12211,7 @@
       <c r="H754" s="11"/>
       <c r="I754" s="4"/>
     </row>
-    <row r="755" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="755" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B755" s="4">
         <v>753</v>
       </c>
@@ -12110,7 +12222,7 @@
       <c r="H755" s="11"/>
       <c r="I755" s="4"/>
     </row>
-    <row r="756" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="756" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B756" s="4">
         <v>754</v>
       </c>
@@ -12121,7 +12233,7 @@
       <c r="H756" s="11"/>
       <c r="I756" s="4"/>
     </row>
-    <row r="757" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="757" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B757" s="4">
         <v>755</v>
       </c>
@@ -12132,7 +12244,7 @@
       <c r="H757" s="11"/>
       <c r="I757" s="4"/>
     </row>
-    <row r="758" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="758" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B758" s="4">
         <v>756</v>
       </c>
@@ -12143,7 +12255,7 @@
       <c r="H758" s="11"/>
       <c r="I758" s="4"/>
     </row>
-    <row r="759" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="759" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B759" s="4">
         <v>757</v>
       </c>
@@ -12154,7 +12266,7 @@
       <c r="H759" s="11"/>
       <c r="I759" s="4"/>
     </row>
-    <row r="760" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="760" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B760" s="4">
         <v>758</v>
       </c>
@@ -12165,7 +12277,7 @@
       <c r="H760" s="11"/>
       <c r="I760" s="4"/>
     </row>
-    <row r="761" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="761" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B761" s="4">
         <v>759</v>
       </c>
@@ -12176,7 +12288,7 @@
       <c r="H761" s="11"/>
       <c r="I761" s="4"/>
     </row>
-    <row r="762" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="762" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B762" s="4">
         <v>760</v>
       </c>
@@ -12187,7 +12299,7 @@
       <c r="H762" s="11"/>
       <c r="I762" s="4"/>
     </row>
-    <row r="763" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="763" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B763" s="4">
         <v>761</v>
       </c>
@@ -12198,7 +12310,7 @@
       <c r="H763" s="11"/>
       <c r="I763" s="4"/>
     </row>
-    <row r="764" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="764" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B764" s="4">
         <v>762</v>
       </c>
@@ -12209,7 +12321,7 @@
       <c r="H764" s="11"/>
       <c r="I764" s="4"/>
     </row>
-    <row r="765" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="765" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B765" s="4">
         <v>763</v>
       </c>
@@ -12220,7 +12332,7 @@
       <c r="H765" s="11"/>
       <c r="I765" s="4"/>
     </row>
-    <row r="766" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="766" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B766" s="4">
         <v>764</v>
       </c>
@@ -12231,7 +12343,7 @@
       <c r="H766" s="11"/>
       <c r="I766" s="4"/>
     </row>
-    <row r="767" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="767" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B767" s="4">
         <v>765</v>
       </c>
@@ -12242,7 +12354,7 @@
       <c r="H767" s="11"/>
       <c r="I767" s="4"/>
     </row>
-    <row r="768" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="768" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B768" s="4">
         <v>766</v>
       </c>
@@ -12253,7 +12365,7 @@
       <c r="H768" s="11"/>
       <c r="I768" s="4"/>
     </row>
-    <row r="769" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="769" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B769" s="4">
         <v>767</v>
       </c>
@@ -12264,7 +12376,7 @@
       <c r="H769" s="11"/>
       <c r="I769" s="4"/>
     </row>
-    <row r="770" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="770" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B770" s="4">
         <v>768</v>
       </c>
@@ -12275,7 +12387,7 @@
       <c r="H770" s="11"/>
       <c r="I770" s="4"/>
     </row>
-    <row r="771" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="771" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B771" s="4">
         <v>769</v>
       </c>
@@ -12286,7 +12398,7 @@
       <c r="H771" s="11"/>
       <c r="I771" s="4"/>
     </row>
-    <row r="772" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="772" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B772" s="4">
         <v>770</v>
       </c>
@@ -12297,7 +12409,7 @@
       <c r="H772" s="11"/>
       <c r="I772" s="4"/>
     </row>
-    <row r="773" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="773" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B773" s="4">
         <v>771</v>
       </c>
@@ -12308,7 +12420,7 @@
       <c r="H773" s="11"/>
       <c r="I773" s="4"/>
     </row>
-    <row r="774" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="774" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B774" s="4">
         <v>772</v>
       </c>
@@ -12319,7 +12431,7 @@
       <c r="H774" s="11"/>
       <c r="I774" s="4"/>
     </row>
-    <row r="775" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="775" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B775" s="4">
         <v>773</v>
       </c>
@@ -12330,7 +12442,7 @@
       <c r="H775" s="11"/>
       <c r="I775" s="4"/>
     </row>
-    <row r="776" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="776" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B776" s="4">
         <v>774</v>
       </c>
@@ -12341,7 +12453,7 @@
       <c r="H776" s="11"/>
       <c r="I776" s="4"/>
     </row>
-    <row r="777" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="777" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B777" s="4">
         <v>775</v>
       </c>
@@ -12352,7 +12464,7 @@
       <c r="H777" s="11"/>
       <c r="I777" s="4"/>
     </row>
-    <row r="778" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="778" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B778" s="4">
         <v>776</v>
       </c>
@@ -12363,7 +12475,7 @@
       <c r="H778" s="11"/>
       <c r="I778" s="4"/>
     </row>
-    <row r="779" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="779" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B779" s="4">
         <v>777</v>
       </c>
@@ -12374,7 +12486,7 @@
       <c r="H779" s="11"/>
       <c r="I779" s="4"/>
     </row>
-    <row r="780" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="780" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B780" s="4">
         <v>778</v>
       </c>
@@ -12385,7 +12497,7 @@
       <c r="H780" s="11"/>
       <c r="I780" s="4"/>
     </row>
-    <row r="781" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="781" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B781" s="4">
         <v>779</v>
       </c>
@@ -12396,7 +12508,7 @@
       <c r="H781" s="11"/>
       <c r="I781" s="4"/>
     </row>
-    <row r="782" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="782" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B782" s="4">
         <v>780</v>
       </c>
@@ -12407,7 +12519,7 @@
       <c r="H782" s="11"/>
       <c r="I782" s="4"/>
     </row>
-    <row r="783" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="783" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B783" s="4">
         <v>781</v>
       </c>
@@ -12418,7 +12530,7 @@
       <c r="H783" s="11"/>
       <c r="I783" s="4"/>
     </row>
-    <row r="784" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="784" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B784" s="4">
         <v>782</v>
       </c>
@@ -12429,7 +12541,7 @@
       <c r="H784" s="11"/>
       <c r="I784" s="4"/>
     </row>
-    <row r="785" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="785" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B785" s="4">
         <v>783</v>
       </c>
@@ -12440,7 +12552,7 @@
       <c r="H785" s="11"/>
       <c r="I785" s="4"/>
     </row>
-    <row r="786" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="786" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B786" s="4">
         <v>784</v>
       </c>
@@ -12451,7 +12563,7 @@
       <c r="H786" s="11"/>
       <c r="I786" s="4"/>
     </row>
-    <row r="787" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="787" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B787" s="4">
         <v>785</v>
       </c>
@@ -12462,7 +12574,7 @@
       <c r="H787" s="11"/>
       <c r="I787" s="4"/>
     </row>
-    <row r="788" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="788" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B788" s="4">
         <v>786</v>
       </c>
@@ -12473,7 +12585,7 @@
       <c r="H788" s="11"/>
       <c r="I788" s="4"/>
     </row>
-    <row r="789" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="789" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B789" s="4">
         <v>787</v>
       </c>
@@ -12484,7 +12596,7 @@
       <c r="H789" s="11"/>
       <c r="I789" s="4"/>
     </row>
-    <row r="790" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="790" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B790" s="4">
         <v>788</v>
       </c>
@@ -12495,7 +12607,7 @@
       <c r="H790" s="11"/>
       <c r="I790" s="4"/>
     </row>
-    <row r="791" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="791" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B791" s="4">
         <v>789</v>
       </c>
@@ -12506,7 +12618,7 @@
       <c r="H791" s="11"/>
       <c r="I791" s="4"/>
     </row>
-    <row r="792" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="792" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B792" s="4">
         <v>790</v>
       </c>
@@ -12517,7 +12629,7 @@
       <c r="H792" s="11"/>
       <c r="I792" s="4"/>
     </row>
-    <row r="793" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="793" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B793" s="4">
         <v>791</v>
       </c>
@@ -12528,7 +12640,7 @@
       <c r="H793" s="11"/>
       <c r="I793" s="4"/>
     </row>
-    <row r="794" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="794" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B794" s="4">
         <v>792</v>
       </c>
@@ -12539,7 +12651,7 @@
       <c r="H794" s="11"/>
       <c r="I794" s="4"/>
     </row>
-    <row r="795" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="795" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B795" s="4">
         <v>793</v>
       </c>
@@ -12550,7 +12662,7 @@
       <c r="H795" s="11"/>
       <c r="I795" s="4"/>
     </row>
-    <row r="796" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="796" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B796" s="4">
         <v>794</v>
       </c>
@@ -12561,7 +12673,7 @@
       <c r="H796" s="11"/>
       <c r="I796" s="4"/>
     </row>
-    <row r="797" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="797" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B797" s="4">
         <v>795</v>
       </c>
@@ -12572,7 +12684,7 @@
       <c r="H797" s="11"/>
       <c r="I797" s="4"/>
     </row>
-    <row r="798" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="798" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B798" s="4">
         <v>796</v>
       </c>
@@ -12583,7 +12695,7 @@
       <c r="H798" s="11"/>
       <c r="I798" s="4"/>
     </row>
-    <row r="799" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="799" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B799" s="4">
         <v>797</v>
       </c>
@@ -12594,7 +12706,7 @@
       <c r="H799" s="11"/>
       <c r="I799" s="4"/>
     </row>
-    <row r="800" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="800" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B800" s="4">
         <v>798</v>
       </c>
@@ -12605,7 +12717,7 @@
       <c r="H800" s="11"/>
       <c r="I800" s="4"/>
     </row>
-    <row r="801" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="801" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B801" s="4">
         <v>799</v>
       </c>
@@ -12616,7 +12728,7 @@
       <c r="H801" s="11"/>
       <c r="I801" s="4"/>
     </row>
-    <row r="802" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="802" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B802" s="4">
         <v>800</v>
       </c>
@@ -12627,7 +12739,7 @@
       <c r="H802" s="11"/>
       <c r="I802" s="4"/>
     </row>
-    <row r="803" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="803" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B803" s="4">
         <v>801</v>
       </c>
@@ -12638,7 +12750,7 @@
       <c r="H803" s="11"/>
       <c r="I803" s="4"/>
     </row>
-    <row r="804" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="804" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B804" s="4">
         <v>802</v>
       </c>
@@ -12649,7 +12761,7 @@
       <c r="H804" s="11"/>
       <c r="I804" s="4"/>
     </row>
-    <row r="805" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="805" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B805" s="4">
         <v>803</v>
       </c>
@@ -12660,7 +12772,7 @@
       <c r="H805" s="11"/>
       <c r="I805" s="4"/>
     </row>
-    <row r="806" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="806" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B806" s="4">
         <v>804</v>
       </c>
@@ -12671,7 +12783,7 @@
       <c r="H806" s="11"/>
       <c r="I806" s="4"/>
     </row>
-    <row r="807" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="807" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B807" s="4">
         <v>805</v>
       </c>
@@ -12682,7 +12794,7 @@
       <c r="H807" s="11"/>
       <c r="I807" s="4"/>
     </row>
-    <row r="808" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="808" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B808" s="4">
         <v>806</v>
       </c>
@@ -12693,7 +12805,7 @@
       <c r="H808" s="11"/>
       <c r="I808" s="4"/>
     </row>
-    <row r="809" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="809" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B809" s="4">
         <v>807</v>
       </c>
@@ -12704,7 +12816,7 @@
       <c r="H809" s="11"/>
       <c r="I809" s="4"/>
     </row>
-    <row r="810" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="810" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B810" s="4">
         <v>808</v>
       </c>
@@ -12715,7 +12827,7 @@
       <c r="H810" s="11"/>
       <c r="I810" s="4"/>
     </row>
-    <row r="811" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="811" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B811" s="4">
         <v>809</v>
       </c>
@@ -12726,7 +12838,7 @@
       <c r="H811" s="11"/>
       <c r="I811" s="4"/>
     </row>
-    <row r="812" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="812" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B812" s="4">
         <v>810</v>
       </c>
@@ -12737,7 +12849,7 @@
       <c r="H812" s="11"/>
       <c r="I812" s="4"/>
     </row>
-    <row r="813" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="813" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B813" s="4">
         <v>811</v>
       </c>
@@ -12748,7 +12860,7 @@
       <c r="H813" s="11"/>
       <c r="I813" s="4"/>
     </row>
-    <row r="814" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="814" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B814" s="4">
         <v>812</v>
       </c>
@@ -12759,7 +12871,7 @@
       <c r="H814" s="11"/>
       <c r="I814" s="4"/>
     </row>
-    <row r="815" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="815" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B815" s="4">
         <v>813</v>
       </c>
@@ -12770,7 +12882,7 @@
       <c r="H815" s="11"/>
       <c r="I815" s="4"/>
     </row>
-    <row r="816" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="816" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B816" s="4">
         <v>814</v>
       </c>
@@ -12781,7 +12893,7 @@
       <c r="H816" s="11"/>
       <c r="I816" s="4"/>
     </row>
-    <row r="817" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="817" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B817" s="4">
         <v>815</v>
       </c>
@@ -12792,7 +12904,7 @@
       <c r="H817" s="11"/>
       <c r="I817" s="4"/>
     </row>
-    <row r="818" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="818" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B818" s="4">
         <v>816</v>
       </c>
@@ -12803,7 +12915,7 @@
       <c r="H818" s="11"/>
       <c r="I818" s="4"/>
     </row>
-    <row r="819" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="819" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B819" s="4">
         <v>817</v>
       </c>
@@ -12814,7 +12926,7 @@
       <c r="H819" s="11"/>
       <c r="I819" s="4"/>
     </row>
-    <row r="820" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="820" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B820" s="4">
         <v>818</v>
       </c>
@@ -12825,7 +12937,7 @@
       <c r="H820" s="11"/>
       <c r="I820" s="4"/>
     </row>
-    <row r="821" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="821" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B821" s="4">
         <v>819</v>
       </c>
@@ -12836,7 +12948,7 @@
       <c r="H821" s="11"/>
       <c r="I821" s="4"/>
     </row>
-    <row r="822" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="822" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B822" s="4">
         <v>820</v>
       </c>
@@ -12847,7 +12959,7 @@
       <c r="H822" s="11"/>
       <c r="I822" s="4"/>
     </row>
-    <row r="823" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="823" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B823" s="4">
         <v>821</v>
       </c>
@@ -12858,7 +12970,7 @@
       <c r="H823" s="11"/>
       <c r="I823" s="4"/>
     </row>
-    <row r="824" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="824" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B824" s="4">
         <v>822</v>
       </c>
@@ -12869,7 +12981,7 @@
       <c r="H824" s="11"/>
       <c r="I824" s="4"/>
     </row>
-    <row r="825" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="825" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B825" s="4">
         <v>823</v>
       </c>
@@ -12880,7 +12992,7 @@
       <c r="H825" s="11"/>
       <c r="I825" s="4"/>
     </row>
-    <row r="826" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="826" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B826" s="4">
         <v>824</v>
       </c>
@@ -12891,7 +13003,7 @@
       <c r="H826" s="11"/>
       <c r="I826" s="4"/>
     </row>
-    <row r="827" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="827" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B827" s="4">
         <v>825</v>
       </c>
@@ -12902,7 +13014,7 @@
       <c r="H827" s="11"/>
       <c r="I827" s="4"/>
     </row>
-    <row r="828" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="828" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B828" s="4">
         <v>826</v>
       </c>
@@ -12913,7 +13025,7 @@
       <c r="H828" s="11"/>
       <c r="I828" s="4"/>
     </row>
-    <row r="829" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="829" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B829" s="4">
         <v>827</v>
       </c>
@@ -12924,7 +13036,7 @@
       <c r="H829" s="11"/>
       <c r="I829" s="4"/>
     </row>
-    <row r="830" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="830" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B830" s="4">
         <v>828</v>
       </c>
@@ -12935,7 +13047,7 @@
       <c r="H830" s="11"/>
       <c r="I830" s="4"/>
     </row>
-    <row r="831" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="831" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B831" s="4">
         <v>829</v>
       </c>
@@ -12946,7 +13058,7 @@
       <c r="H831" s="11"/>
       <c r="I831" s="4"/>
     </row>
-    <row r="832" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="832" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B832" s="4">
         <v>830</v>
       </c>
@@ -12957,7 +13069,7 @@
       <c r="H832" s="11"/>
       <c r="I832" s="4"/>
     </row>
-    <row r="833" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="833" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B833" s="4">
         <v>831</v>
       </c>
@@ -12968,7 +13080,7 @@
       <c r="H833" s="11"/>
       <c r="I833" s="4"/>
     </row>
-    <row r="834" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="834" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B834" s="4">
         <v>832</v>
       </c>
@@ -12979,7 +13091,7 @@
       <c r="H834" s="11"/>
       <c r="I834" s="4"/>
     </row>
-    <row r="835" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="835" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B835" s="4">
         <v>833</v>
       </c>
@@ -12990,7 +13102,7 @@
       <c r="H835" s="11"/>
       <c r="I835" s="4"/>
     </row>
-    <row r="836" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="836" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B836" s="4">
         <v>834</v>
       </c>
@@ -13001,7 +13113,7 @@
       <c r="H836" s="11"/>
       <c r="I836" s="4"/>
     </row>
-    <row r="837" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="837" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B837" s="4">
         <v>835</v>
       </c>
@@ -13012,7 +13124,7 @@
       <c r="H837" s="11"/>
       <c r="I837" s="4"/>
     </row>
-    <row r="838" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="838" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B838" s="4">
         <v>836</v>
       </c>
@@ -13023,7 +13135,7 @@
       <c r="H838" s="11"/>
       <c r="I838" s="4"/>
     </row>
-    <row r="839" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="839" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B839" s="4">
         <v>837</v>
       </c>
@@ -13034,7 +13146,7 @@
       <c r="H839" s="11"/>
       <c r="I839" s="4"/>
     </row>
-    <row r="840" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="840" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B840" s="4">
         <v>838</v>
       </c>
@@ -13045,7 +13157,7 @@
       <c r="H840" s="11"/>
       <c r="I840" s="4"/>
     </row>
-    <row r="841" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="841" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B841" s="4">
         <v>839</v>
       </c>
@@ -13056,7 +13168,7 @@
       <c r="H841" s="11"/>
       <c r="I841" s="4"/>
     </row>
-    <row r="842" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="842" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B842" s="4">
         <v>840</v>
       </c>
@@ -13067,7 +13179,7 @@
       <c r="H842" s="11"/>
       <c r="I842" s="4"/>
     </row>
-    <row r="843" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="843" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B843" s="4">
         <v>841</v>
       </c>
@@ -13078,7 +13190,7 @@
       <c r="H843" s="11"/>
       <c r="I843" s="4"/>
     </row>
-    <row r="844" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="844" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B844" s="4">
         <v>842</v>
       </c>
@@ -13089,7 +13201,7 @@
       <c r="H844" s="11"/>
       <c r="I844" s="4"/>
     </row>
-    <row r="845" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="845" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B845" s="4">
         <v>843</v>
       </c>
@@ -13100,7 +13212,7 @@
       <c r="H845" s="11"/>
       <c r="I845" s="4"/>
     </row>
-    <row r="846" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="846" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B846" s="4">
         <v>844</v>
       </c>
@@ -13111,7 +13223,7 @@
       <c r="H846" s="11"/>
       <c r="I846" s="4"/>
     </row>
-    <row r="847" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="847" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B847" s="4">
         <v>845</v>
       </c>
@@ -13122,7 +13234,7 @@
       <c r="H847" s="11"/>
       <c r="I847" s="4"/>
     </row>
-    <row r="848" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="848" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B848" s="4">
         <v>846</v>
       </c>
@@ -13133,7 +13245,7 @@
       <c r="H848" s="11"/>
       <c r="I848" s="4"/>
     </row>
-    <row r="849" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="849" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B849" s="4">
         <v>847</v>
       </c>
@@ -13144,7 +13256,7 @@
       <c r="H849" s="11"/>
       <c r="I849" s="4"/>
     </row>
-    <row r="850" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="850" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B850" s="4">
         <v>848</v>
       </c>
@@ -13155,7 +13267,7 @@
       <c r="H850" s="11"/>
       <c r="I850" s="4"/>
     </row>
-    <row r="851" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="851" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B851" s="4">
         <v>849</v>
       </c>
@@ -13166,7 +13278,7 @@
       <c r="H851" s="11"/>
       <c r="I851" s="4"/>
     </row>
-    <row r="852" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="852" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B852" s="4">
         <v>850</v>
       </c>
@@ -13177,7 +13289,7 @@
       <c r="H852" s="11"/>
       <c r="I852" s="4"/>
     </row>
-    <row r="853" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="853" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B853" s="4">
         <v>851</v>
       </c>
@@ -13188,7 +13300,7 @@
       <c r="H853" s="11"/>
       <c r="I853" s="4"/>
     </row>
-    <row r="854" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="854" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B854" s="4">
         <v>852</v>
       </c>
@@ -13199,7 +13311,7 @@
       <c r="H854" s="11"/>
       <c r="I854" s="4"/>
     </row>
-    <row r="855" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="855" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B855" s="4">
         <v>853</v>
       </c>
@@ -13210,7 +13322,7 @@
       <c r="H855" s="11"/>
       <c r="I855" s="4"/>
     </row>
-    <row r="856" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="856" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B856" s="4">
         <v>854</v>
       </c>
@@ -13221,7 +13333,7 @@
       <c r="H856" s="11"/>
       <c r="I856" s="4"/>
     </row>
-    <row r="857" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="857" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B857" s="4">
         <v>855</v>
       </c>
@@ -13232,7 +13344,7 @@
       <c r="H857" s="11"/>
       <c r="I857" s="4"/>
     </row>
-    <row r="858" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="858" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B858" s="4">
         <v>856</v>
       </c>
@@ -13243,7 +13355,7 @@
       <c r="H858" s="11"/>
       <c r="I858" s="4"/>
     </row>
-    <row r="859" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="859" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B859" s="4">
         <v>857</v>
       </c>
@@ -13254,7 +13366,7 @@
       <c r="H859" s="11"/>
       <c r="I859" s="4"/>
     </row>
-    <row r="860" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="860" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B860" s="4">
         <v>858</v>
       </c>
@@ -13265,7 +13377,7 @@
       <c r="H860" s="11"/>
       <c r="I860" s="4"/>
     </row>
-    <row r="861" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="861" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B861" s="4">
         <v>859</v>
       </c>
@@ -13276,7 +13388,7 @@
       <c r="H861" s="11"/>
       <c r="I861" s="4"/>
     </row>
-    <row r="862" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="862" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B862" s="4">
         <v>860</v>
       </c>
@@ -13287,7 +13399,7 @@
       <c r="H862" s="11"/>
       <c r="I862" s="4"/>
     </row>
-    <row r="863" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="863" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B863" s="4">
         <v>861</v>
       </c>
@@ -13298,7 +13410,7 @@
       <c r="H863" s="11"/>
       <c r="I863" s="4"/>
     </row>
-    <row r="864" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="864" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B864" s="4">
         <v>862</v>
       </c>
@@ -13309,7 +13421,7 @@
       <c r="H864" s="11"/>
       <c r="I864" s="4"/>
     </row>
-    <row r="865" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="865" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B865" s="4">
         <v>863</v>
       </c>
@@ -13320,7 +13432,7 @@
       <c r="H865" s="11"/>
       <c r="I865" s="4"/>
     </row>
-    <row r="866" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="866" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B866" s="4">
         <v>864</v>
       </c>
@@ -13331,7 +13443,7 @@
       <c r="H866" s="11"/>
       <c r="I866" s="4"/>
     </row>
-    <row r="867" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="867" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B867" s="4">
         <v>865</v>
       </c>
@@ -13342,7 +13454,7 @@
       <c r="H867" s="11"/>
       <c r="I867" s="4"/>
     </row>
-    <row r="868" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="868" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B868" s="4">
         <v>866</v>
       </c>
@@ -13353,7 +13465,7 @@
       <c r="H868" s="11"/>
       <c r="I868" s="4"/>
     </row>
-    <row r="869" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="869" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B869" s="4">
         <v>867</v>
       </c>
@@ -13364,7 +13476,7 @@
       <c r="H869" s="11"/>
       <c r="I869" s="4"/>
     </row>
-    <row r="870" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="870" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B870" s="4">
         <v>868</v>
       </c>
@@ -13375,7 +13487,7 @@
       <c r="H870" s="11"/>
       <c r="I870" s="4"/>
     </row>
-    <row r="871" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="871" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B871" s="4">
         <v>869</v>
       </c>
@@ -13386,7 +13498,7 @@
       <c r="H871" s="11"/>
       <c r="I871" s="4"/>
     </row>
-    <row r="872" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="872" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B872" s="4">
         <v>870</v>
       </c>
@@ -13397,7 +13509,7 @@
       <c r="H872" s="11"/>
       <c r="I872" s="4"/>
     </row>
-    <row r="873" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="873" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B873" s="4">
         <v>871</v>
       </c>
@@ -13408,7 +13520,7 @@
       <c r="H873" s="11"/>
       <c r="I873" s="4"/>
     </row>
-    <row r="874" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="874" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B874" s="4">
         <v>872</v>
       </c>
@@ -13419,7 +13531,7 @@
       <c r="H874" s="11"/>
       <c r="I874" s="4"/>
     </row>
-    <row r="875" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="875" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B875" s="4">
         <v>873</v>
       </c>
@@ -13430,7 +13542,7 @@
       <c r="H875" s="11"/>
       <c r="I875" s="4"/>
     </row>
-    <row r="876" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="876" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B876" s="4">
         <v>874</v>
       </c>
@@ -13441,7 +13553,7 @@
       <c r="H876" s="11"/>
       <c r="I876" s="4"/>
     </row>
-    <row r="877" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="877" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B877" s="4">
         <v>875</v>
       </c>
@@ -13452,7 +13564,7 @@
       <c r="H877" s="11"/>
       <c r="I877" s="4"/>
     </row>
-    <row r="878" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="878" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B878" s="4">
         <v>876</v>
       </c>
@@ -13463,7 +13575,7 @@
       <c r="H878" s="11"/>
       <c r="I878" s="4"/>
     </row>
-    <row r="879" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="879" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B879" s="4">
         <v>877</v>
       </c>
@@ -13474,7 +13586,7 @@
       <c r="H879" s="11"/>
       <c r="I879" s="4"/>
     </row>
-    <row r="880" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="880" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B880" s="4">
         <v>878</v>
       </c>
@@ -13485,7 +13597,7 @@
       <c r="H880" s="11"/>
       <c r="I880" s="4"/>
     </row>
-    <row r="881" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="881" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B881" s="4">
         <v>879</v>
       </c>
@@ -13496,7 +13608,7 @@
       <c r="H881" s="11"/>
       <c r="I881" s="4"/>
     </row>
-    <row r="882" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="882" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B882" s="4">
         <v>880</v>
       </c>
@@ -13507,7 +13619,7 @@
       <c r="H882" s="11"/>
       <c r="I882" s="4"/>
     </row>
-    <row r="883" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="883" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B883" s="4">
         <v>881</v>
       </c>
@@ -13518,7 +13630,7 @@
       <c r="H883" s="11"/>
       <c r="I883" s="4"/>
     </row>
-    <row r="884" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="884" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B884" s="4">
         <v>882</v>
       </c>
@@ -13529,7 +13641,7 @@
       <c r="H884" s="11"/>
       <c r="I884" s="4"/>
     </row>
-    <row r="885" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="885" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B885" s="4">
         <v>883</v>
       </c>
@@ -13540,7 +13652,7 @@
       <c r="H885" s="11"/>
       <c r="I885" s="4"/>
     </row>
-    <row r="886" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="886" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B886" s="4">
         <v>884</v>
       </c>
@@ -13551,7 +13663,7 @@
       <c r="H886" s="11"/>
       <c r="I886" s="4"/>
     </row>
-    <row r="887" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="887" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B887" s="4">
         <v>885</v>
       </c>
@@ -13562,7 +13674,7 @@
       <c r="H887" s="11"/>
       <c r="I887" s="4"/>
     </row>
-    <row r="888" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="888" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B888" s="4">
         <v>886</v>
       </c>
@@ -13573,7 +13685,7 @@
       <c r="H888" s="11"/>
       <c r="I888" s="4"/>
     </row>
-    <row r="889" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="889" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B889" s="4">
         <v>887</v>
       </c>
@@ -13584,7 +13696,7 @@
       <c r="H889" s="11"/>
       <c r="I889" s="4"/>
     </row>
-    <row r="890" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="890" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B890" s="4">
         <v>888</v>
       </c>
@@ -13595,7 +13707,7 @@
       <c r="H890" s="11"/>
       <c r="I890" s="4"/>
     </row>
-    <row r="891" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="891" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B891" s="4">
         <v>889</v>
       </c>
@@ -13606,7 +13718,7 @@
       <c r="H891" s="11"/>
       <c r="I891" s="4"/>
     </row>
-    <row r="892" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="892" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B892" s="4">
         <v>890</v>
       </c>
@@ -13617,7 +13729,7 @@
       <c r="H892" s="11"/>
       <c r="I892" s="4"/>
     </row>
-    <row r="893" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="893" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B893" s="4">
         <v>891</v>
       </c>
@@ -13628,7 +13740,7 @@
       <c r="H893" s="11"/>
       <c r="I893" s="4"/>
     </row>
-    <row r="894" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="894" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B894" s="4">
         <v>892</v>
       </c>
@@ -13639,7 +13751,7 @@
       <c r="H894" s="11"/>
       <c r="I894" s="4"/>
     </row>
-    <row r="895" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="895" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B895" s="4">
         <v>893</v>
       </c>
@@ -13650,7 +13762,7 @@
       <c r="H895" s="11"/>
       <c r="I895" s="4"/>
     </row>
-    <row r="896" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="896" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B896" s="4">
         <v>894</v>
       </c>
@@ -13661,7 +13773,7 @@
       <c r="H896" s="11"/>
       <c r="I896" s="4"/>
     </row>
-    <row r="897" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="897" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B897" s="4">
         <v>895</v>
       </c>
@@ -13672,7 +13784,7 @@
       <c r="H897" s="11"/>
       <c r="I897" s="4"/>
     </row>
-    <row r="898" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="898" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B898" s="4">
         <v>896</v>
       </c>
@@ -13683,7 +13795,7 @@
       <c r="H898" s="11"/>
       <c r="I898" s="4"/>
     </row>
-    <row r="899" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="899" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B899" s="4">
         <v>897</v>
       </c>
@@ -13694,7 +13806,7 @@
       <c r="H899" s="11"/>
       <c r="I899" s="4"/>
     </row>
-    <row r="900" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="900" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B900" s="4">
         <v>898</v>
       </c>
@@ -13705,7 +13817,7 @@
       <c r="H900" s="11"/>
       <c r="I900" s="4"/>
     </row>
-    <row r="901" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="901" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B901" s="4">
         <v>899</v>
       </c>
@@ -13716,7 +13828,7 @@
       <c r="H901" s="11"/>
       <c r="I901" s="4"/>
     </row>
-    <row r="902" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="902" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B902" s="4">
         <v>900</v>
       </c>
@@ -13727,7 +13839,7 @@
       <c r="H902" s="11"/>
       <c r="I902" s="4"/>
     </row>
-    <row r="903" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="903" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B903" s="4">
         <v>901</v>
       </c>
@@ -13738,7 +13850,7 @@
       <c r="H903" s="11"/>
       <c r="I903" s="4"/>
     </row>
-    <row r="904" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="904" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B904" s="4">
         <v>902</v>
       </c>
@@ -13749,7 +13861,7 @@
       <c r="H904" s="11"/>
       <c r="I904" s="4"/>
     </row>
-    <row r="905" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="905" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B905" s="4">
         <v>903</v>
       </c>
@@ -13760,7 +13872,7 @@
       <c r="H905" s="11"/>
       <c r="I905" s="4"/>
     </row>
-    <row r="906" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="906" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B906" s="4">
         <v>904</v>
       </c>
@@ -13771,7 +13883,7 @@
       <c r="H906" s="11"/>
       <c r="I906" s="4"/>
     </row>
-    <row r="907" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="907" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B907" s="4">
         <v>905</v>
       </c>
@@ -13782,7 +13894,7 @@
       <c r="H907" s="11"/>
       <c r="I907" s="4"/>
     </row>
-    <row r="908" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="908" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B908" s="4">
         <v>906</v>
       </c>
@@ -13793,7 +13905,7 @@
       <c r="H908" s="11"/>
       <c r="I908" s="4"/>
     </row>
-    <row r="909" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="909" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B909" s="4">
         <v>907</v>
       </c>
@@ -13804,7 +13916,7 @@
       <c r="H909" s="11"/>
       <c r="I909" s="4"/>
     </row>
-    <row r="910" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="910" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B910" s="4">
         <v>908</v>
       </c>
@@ -13815,7 +13927,7 @@
       <c r="H910" s="11"/>
       <c r="I910" s="4"/>
     </row>
-    <row r="911" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="911" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B911" s="4">
         <v>909</v>
       </c>
@@ -13826,7 +13938,7 @@
       <c r="H911" s="11"/>
       <c r="I911" s="4"/>
     </row>
-    <row r="912" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="912" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B912" s="4">
         <v>910</v>
       </c>
@@ -13837,7 +13949,7 @@
       <c r="H912" s="11"/>
       <c r="I912" s="4"/>
     </row>
-    <row r="913" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="913" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B913" s="4">
         <v>911</v>
       </c>
@@ -13848,7 +13960,7 @@
       <c r="H913" s="11"/>
       <c r="I913" s="4"/>
     </row>
-    <row r="914" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="914" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B914" s="4">
         <v>912</v>
       </c>
@@ -13859,7 +13971,7 @@
       <c r="H914" s="11"/>
       <c r="I914" s="4"/>
     </row>
-    <row r="915" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="915" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B915" s="4">
         <v>913</v>
       </c>
@@ -13870,7 +13982,7 @@
       <c r="H915" s="11"/>
       <c r="I915" s="4"/>
     </row>
-    <row r="916" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="916" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B916" s="4">
         <v>914</v>
       </c>
@@ -13881,7 +13993,7 @@
       <c r="H916" s="11"/>
       <c r="I916" s="4"/>
     </row>
-    <row r="917" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="917" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B917" s="4">
         <v>915</v>
       </c>
@@ -13892,7 +14004,7 @@
       <c r="H917" s="11"/>
       <c r="I917" s="4"/>
     </row>
-    <row r="918" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="918" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B918" s="4">
         <v>916</v>
       </c>
@@ -13903,7 +14015,7 @@
       <c r="H918" s="11"/>
       <c r="I918" s="4"/>
     </row>
-    <row r="919" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="919" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B919" s="4">
         <v>917</v>
       </c>
@@ -13914,7 +14026,7 @@
       <c r="H919" s="11"/>
       <c r="I919" s="4"/>
     </row>
-    <row r="920" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="920" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B920" s="4">
         <v>918</v>
       </c>
@@ -13925,7 +14037,7 @@
       <c r="H920" s="11"/>
       <c r="I920" s="4"/>
     </row>
-    <row r="921" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="921" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B921" s="4">
         <v>919</v>
       </c>
@@ -13936,7 +14048,7 @@
       <c r="H921" s="11"/>
       <c r="I921" s="4"/>
     </row>
-    <row r="922" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="922" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B922" s="4">
         <v>920</v>
       </c>
@@ -13947,7 +14059,7 @@
       <c r="H922" s="11"/>
       <c r="I922" s="4"/>
     </row>
-    <row r="923" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="923" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B923" s="4">
         <v>921</v>
       </c>
@@ -13958,7 +14070,7 @@
       <c r="H923" s="11"/>
       <c r="I923" s="4"/>
     </row>
-    <row r="924" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="924" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B924" s="4">
         <v>922</v>
       </c>
@@ -13969,7 +14081,7 @@
       <c r="H924" s="11"/>
       <c r="I924" s="4"/>
     </row>
-    <row r="925" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="925" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B925" s="4">
         <v>923</v>
       </c>
@@ -13980,7 +14092,7 @@
       <c r="H925" s="11"/>
       <c r="I925" s="4"/>
     </row>
-    <row r="926" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="926" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B926" s="4">
         <v>924</v>
       </c>
@@ -13991,7 +14103,7 @@
       <c r="H926" s="11"/>
       <c r="I926" s="4"/>
     </row>
-    <row r="927" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="927" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B927" s="4">
         <v>925</v>
       </c>
@@ -14002,7 +14114,7 @@
       <c r="H927" s="11"/>
       <c r="I927" s="4"/>
     </row>
-    <row r="928" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="928" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B928" s="4">
         <v>926</v>
       </c>
@@ -14013,7 +14125,7 @@
       <c r="H928" s="11"/>
       <c r="I928" s="4"/>
     </row>
-    <row r="929" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="929" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B929" s="4">
         <v>927</v>
       </c>
@@ -14024,7 +14136,7 @@
       <c r="H929" s="11"/>
       <c r="I929" s="4"/>
     </row>
-    <row r="930" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="930" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B930" s="4">
         <v>928</v>
       </c>
@@ -14035,7 +14147,7 @@
       <c r="H930" s="11"/>
       <c r="I930" s="4"/>
     </row>
-    <row r="931" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="931" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B931" s="4">
         <v>929</v>
       </c>
@@ -14046,7 +14158,7 @@
       <c r="H931" s="11"/>
       <c r="I931" s="4"/>
     </row>
-    <row r="932" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="932" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B932" s="4">
         <v>930</v>
       </c>
@@ -14057,7 +14169,7 @@
       <c r="H932" s="11"/>
       <c r="I932" s="4"/>
     </row>
-    <row r="933" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="933" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B933" s="4">
         <v>931</v>
       </c>
@@ -14068,7 +14180,7 @@
       <c r="H933" s="11"/>
       <c r="I933" s="4"/>
     </row>
-    <row r="934" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="934" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B934" s="4">
         <v>932</v>
       </c>
@@ -14079,7 +14191,7 @@
       <c r="H934" s="11"/>
       <c r="I934" s="4"/>
     </row>
-    <row r="935" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="935" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B935" s="4">
         <v>933</v>
       </c>
@@ -14090,7 +14202,7 @@
       <c r="H935" s="11"/>
       <c r="I935" s="4"/>
     </row>
-    <row r="936" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="936" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B936" s="4">
         <v>934</v>
       </c>
@@ -14101,7 +14213,7 @@
       <c r="H936" s="11"/>
       <c r="I936" s="4"/>
     </row>
-    <row r="937" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="937" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B937" s="4">
         <v>935</v>
       </c>
@@ -14112,7 +14224,7 @@
       <c r="H937" s="11"/>
       <c r="I937" s="4"/>
     </row>
-    <row r="938" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="938" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B938" s="4">
         <v>936</v>
       </c>
@@ -14123,7 +14235,7 @@
       <c r="H938" s="11"/>
       <c r="I938" s="4"/>
     </row>
-    <row r="939" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="939" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B939" s="4">
         <v>937</v>
       </c>
@@ -14134,7 +14246,7 @@
       <c r="H939" s="11"/>
       <c r="I939" s="4"/>
     </row>
-    <row r="940" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="940" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B940" s="4">
         <v>938</v>
       </c>
@@ -14145,7 +14257,7 @@
       <c r="H940" s="11"/>
       <c r="I940" s="4"/>
     </row>
-    <row r="941" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="941" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B941" s="4">
         <v>939</v>
       </c>
@@ -14156,7 +14268,7 @@
       <c r="H941" s="11"/>
       <c r="I941" s="4"/>
     </row>
-    <row r="942" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="942" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B942" s="4">
         <v>940</v>
       </c>
@@ -14167,7 +14279,7 @@
       <c r="H942" s="11"/>
       <c r="I942" s="4"/>
     </row>
-    <row r="943" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="943" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B943" s="4">
         <v>941</v>
       </c>
@@ -14178,7 +14290,7 @@
       <c r="H943" s="11"/>
       <c r="I943" s="4"/>
     </row>
-    <row r="944" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="944" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B944" s="4">
         <v>942</v>
       </c>
@@ -14189,7 +14301,7 @@
       <c r="H944" s="11"/>
       <c r="I944" s="4"/>
     </row>
-    <row r="945" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="945" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B945" s="4">
         <v>943</v>
       </c>
@@ -14200,7 +14312,7 @@
       <c r="H945" s="11"/>
       <c r="I945" s="4"/>
     </row>
-    <row r="946" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="946" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B946" s="4">
         <v>944</v>
       </c>
@@ -14211,7 +14323,7 @@
       <c r="H946" s="11"/>
       <c r="I946" s="4"/>
     </row>
-    <row r="947" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="947" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B947" s="4">
         <v>945</v>
       </c>
@@ -14222,7 +14334,7 @@
       <c r="H947" s="11"/>
       <c r="I947" s="4"/>
     </row>
-    <row r="948" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="948" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B948" s="4">
         <v>946</v>
       </c>
@@ -14233,7 +14345,7 @@
       <c r="H948" s="11"/>
       <c r="I948" s="4"/>
     </row>
-    <row r="949" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="949" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B949" s="4">
         <v>947</v>
       </c>
@@ -14244,7 +14356,7 @@
       <c r="H949" s="11"/>
       <c r="I949" s="4"/>
     </row>
-    <row r="950" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="950" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B950" s="4">
         <v>948</v>
       </c>
@@ -14255,7 +14367,7 @@
       <c r="H950" s="11"/>
       <c r="I950" s="4"/>
     </row>
-    <row r="951" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="951" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B951" s="4">
         <v>949</v>
       </c>
@@ -14266,7 +14378,7 @@
       <c r="H951" s="11"/>
       <c r="I951" s="4"/>
     </row>
-    <row r="952" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="952" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B952" s="4">
         <v>950</v>
       </c>
@@ -14277,7 +14389,7 @@
       <c r="H952" s="11"/>
       <c r="I952" s="4"/>
     </row>
-    <row r="953" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="953" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B953" s="4">
         <v>951</v>
       </c>
@@ -14288,7 +14400,7 @@
       <c r="H953" s="11"/>
       <c r="I953" s="4"/>
     </row>
-    <row r="954" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="954" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B954" s="4">
         <v>952</v>
       </c>
@@ -14299,7 +14411,7 @@
       <c r="H954" s="11"/>
       <c r="I954" s="4"/>
     </row>
-    <row r="955" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="955" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B955" s="4">
         <v>953</v>
       </c>
@@ -14310,7 +14422,7 @@
       <c r="H955" s="11"/>
       <c r="I955" s="4"/>
     </row>
-    <row r="956" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="956" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B956" s="4">
         <v>954</v>
       </c>
@@ -14321,7 +14433,7 @@
       <c r="H956" s="11"/>
       <c r="I956" s="4"/>
     </row>
-    <row r="957" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="957" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B957" s="4">
         <v>955</v>
       </c>
@@ -14332,7 +14444,7 @@
       <c r="H957" s="11"/>
       <c r="I957" s="4"/>
     </row>
-    <row r="958" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="958" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B958" s="4">
         <v>956</v>
       </c>
@@ -14343,7 +14455,7 @@
       <c r="H958" s="11"/>
       <c r="I958" s="4"/>
     </row>
-    <row r="959" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="959" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B959" s="4">
         <v>957</v>
       </c>
@@ -14354,7 +14466,7 @@
       <c r="H959" s="11"/>
       <c r="I959" s="4"/>
     </row>
-    <row r="960" spans="2:9" ht="21" x14ac:dyDescent="0.7">
+    <row r="960" spans="2:9" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B960" s="4">
         <v>958</v>
       </c>
@@ -14365,7 +14477,7 @@
       <c r="H960" s="11"/>
       <c r="I960" s="4"/>
     </row>
-    <row r="961" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="961" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B961" s="4">
         <v>959</v>
       </c>
@@ -14376,7 +14488,7 @@
       <c r="H961" s="11"/>
       <c r="I961" s="4"/>
     </row>
-    <row r="962" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="962" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B962" s="4">
         <v>960</v>
       </c>
@@ -14387,7 +14499,7 @@
       <c r="H962" s="11"/>
       <c r="I962" s="4"/>
     </row>
-    <row r="963" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="963" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B963" s="4">
         <v>961</v>
       </c>
@@ -14398,7 +14510,7 @@
       <c r="H963" s="11"/>
       <c r="I963" s="4"/>
     </row>
-    <row r="964" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="964" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B964" s="4">
         <v>962</v>
       </c>
@@ -14409,7 +14521,7 @@
       <c r="H964" s="11"/>
       <c r="I964" s="4"/>
     </row>
-    <row r="965" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="965" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B965" s="4">
         <v>963</v>
       </c>
@@ -14420,7 +14532,7 @@
       <c r="H965" s="11"/>
       <c r="I965" s="4"/>
     </row>
-    <row r="966" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="966" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B966" s="4">
         <v>964</v>
       </c>
@@ -14431,7 +14543,7 @@
       <c r="H966" s="11"/>
       <c r="I966" s="4"/>
     </row>
-    <row r="967" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="967" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B967" s="4">
         <v>965</v>
       </c>
@@ -14442,7 +14554,7 @@
       <c r="H967" s="11"/>
       <c r="I967" s="4"/>
     </row>
-    <row r="968" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="968" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B968" s="4">
         <v>966</v>
       </c>
@@ -14453,7 +14565,7 @@
       <c r="H968" s="11"/>
       <c r="I968" s="4"/>
     </row>
-    <row r="969" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="969" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B969" s="4">
         <v>967</v>
       </c>
@@ -14464,7 +14576,7 @@
       <c r="H969" s="11"/>
       <c r="I969" s="4"/>
     </row>
-    <row r="970" spans="2:12" ht="21" x14ac:dyDescent="0.7">
+    <row r="970" spans="2:12" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="B970" s="4">
         <v>968</v>
       </c>
@@ -14475,7 +14587,7 @@
       <c r="H970" s="11"/>
       <c r="I970" s="4"/>
     </row>
-    <row r="971" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B971" s="4">
         <v>969</v>
       </c>
@@ -14487,7 +14599,7 @@
       <c r="I971" s="3"/>
       <c r="L971" s="8"/>
     </row>
-    <row r="972" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B972" s="4">
         <v>970</v>
       </c>
@@ -14499,7 +14611,7 @@
       <c r="I972" s="3"/>
       <c r="L972" s="8"/>
     </row>
-    <row r="973" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B973" s="4">
         <v>971</v>
       </c>
@@ -14511,7 +14623,7 @@
       <c r="I973" s="3"/>
       <c r="L973" s="8"/>
     </row>
-    <row r="974" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B974" s="4">
         <v>972</v>
       </c>
@@ -14523,7 +14635,7 @@
       <c r="I974" s="3"/>
       <c r="L974" s="8"/>
     </row>
-    <row r="975" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B975" s="4">
         <v>973</v>
       </c>
@@ -14535,7 +14647,7 @@
       <c r="I975" s="3"/>
       <c r="L975" s="8"/>
     </row>
-    <row r="976" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B976" s="4">
         <v>974</v>
       </c>
@@ -14547,7 +14659,7 @@
       <c r="I976" s="3"/>
       <c r="L976" s="8"/>
     </row>
-    <row r="977" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B977" s="4">
         <v>975</v>
       </c>
@@ -14559,7 +14671,7 @@
       <c r="I977" s="3"/>
       <c r="L977" s="8"/>
     </row>
-    <row r="978" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B978" s="4">
         <v>976</v>
       </c>
@@ -14571,7 +14683,7 @@
       <c r="I978" s="3"/>
       <c r="L978" s="8"/>
     </row>
-    <row r="979" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B979" s="4">
         <v>977</v>
       </c>
@@ -14583,7 +14695,7 @@
       <c r="I979" s="3"/>
       <c r="L979" s="8"/>
     </row>
-    <row r="980" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B980" s="4">
         <v>978</v>
       </c>
@@ -14595,7 +14707,7 @@
       <c r="I980" s="3"/>
       <c r="L980" s="8"/>
     </row>
-    <row r="981" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B981" s="4">
         <v>979</v>
       </c>
@@ -14607,7 +14719,7 @@
       <c r="I981" s="3"/>
       <c r="L981" s="8"/>
     </row>
-    <row r="982" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B982" s="4">
         <v>980</v>
       </c>
@@ -14619,7 +14731,7 @@
       <c r="I982" s="3"/>
       <c r="L982" s="8"/>
     </row>
-    <row r="983" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B983" s="4">
         <v>981</v>
       </c>
@@ -14631,7 +14743,7 @@
       <c r="I983" s="3"/>
       <c r="L983" s="8"/>
     </row>
-    <row r="984" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B984" s="4">
         <v>982</v>
       </c>
@@ -14643,7 +14755,7 @@
       <c r="I984" s="3"/>
       <c r="L984" s="8"/>
     </row>
-    <row r="985" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B985" s="4">
         <v>983</v>
       </c>
@@ -14655,7 +14767,7 @@
       <c r="I985" s="3"/>
       <c r="L985" s="8"/>
     </row>
-    <row r="986" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B986" s="4">
         <v>984</v>
       </c>
@@ -14667,7 +14779,7 @@
       <c r="I986" s="3"/>
       <c r="L986" s="8"/>
     </row>
-    <row r="987" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B987" s="4">
         <v>985</v>
       </c>
@@ -14679,7 +14791,7 @@
       <c r="I987" s="3"/>
       <c r="L987" s="8"/>
     </row>
-    <row r="988" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B988" s="4">
         <v>986</v>
       </c>
@@ -14691,7 +14803,7 @@
       <c r="I988" s="3"/>
       <c r="L988" s="8"/>
     </row>
-    <row r="989" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B989" s="4">
         <v>987</v>
       </c>
@@ -14703,7 +14815,7 @@
       <c r="I989" s="3"/>
       <c r="L989" s="8"/>
     </row>
-    <row r="990" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B990" s="4">
         <v>988</v>
       </c>
@@ -14715,7 +14827,7 @@
       <c r="I990" s="3"/>
       <c r="L990" s="8"/>
     </row>
-    <row r="991" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B991" s="4">
         <v>989</v>
       </c>
@@ -14727,7 +14839,7 @@
       <c r="I991" s="3"/>
       <c r="L991" s="8"/>
     </row>
-    <row r="992" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B992" s="4">
         <v>990</v>
       </c>
@@ -14739,7 +14851,7 @@
       <c r="I992" s="3"/>
       <c r="L992" s="8"/>
     </row>
-    <row r="993" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B993" s="4">
         <v>991</v>
       </c>
@@ -14751,7 +14863,7 @@
       <c r="I993" s="3"/>
       <c r="L993" s="8"/>
     </row>
-    <row r="994" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B994" s="4">
         <v>992</v>
       </c>
@@ -14763,7 +14875,7 @@
       <c r="I994" s="3"/>
       <c r="L994" s="8"/>
     </row>
-    <row r="995" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B995" s="4">
         <v>993</v>
       </c>
@@ -14775,7 +14887,7 @@
       <c r="I995" s="3"/>
       <c r="L995" s="8"/>
     </row>
-    <row r="996" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B996" s="4">
         <v>994</v>
       </c>
@@ -14787,7 +14899,7 @@
       <c r="I996" s="3"/>
       <c r="L996" s="8"/>
     </row>
-    <row r="997" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B997" s="4">
         <v>995</v>
       </c>
@@ -14799,7 +14911,7 @@
       <c r="I997" s="3"/>
       <c r="L997" s="8"/>
     </row>
-    <row r="998" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B998" s="4">
         <v>996</v>
       </c>
@@ -14811,7 +14923,7 @@
       <c r="I998" s="3"/>
       <c r="L998" s="8"/>
     </row>
-    <row r="999" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B999" s="4">
         <v>997</v>
       </c>
@@ -14823,7 +14935,7 @@
       <c r="I999" s="3"/>
       <c r="L999" s="8"/>
     </row>
-    <row r="1000" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1000" s="4">
         <v>998</v>
       </c>
@@ -14835,7 +14947,7 @@
       <c r="I1000" s="3"/>
       <c r="L1000" s="8"/>
     </row>
-    <row r="1001" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1001" s="4">
         <v>999</v>
       </c>
@@ -14847,7 +14959,7 @@
       <c r="I1001" s="3"/>
       <c r="L1001" s="8"/>
     </row>
-    <row r="1002" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1002" s="4">
         <v>1000</v>
       </c>
@@ -14859,19 +14971,19 @@
       <c r="I1002" s="3"/>
       <c r="L1002" s="8"/>
     </row>
-    <row r="1003" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1003" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1003" s="15">
         <f>SUM(C3:C1002)</f>
-        <v>92962243</v>
+        <v>97677643</v>
       </c>
       <c r="D1003" s="12"/>
       <c r="E1003" s="3"/>
       <c r="G1003" s="15">
         <f>SUM(G3:G1002)</f>
-        <v>102915623</v>
+        <v>103415623</v>
       </c>
       <c r="H1003" s="12"/>
       <c r="I1003" s="3"/>
